--- a/ReadandFitness/Read_record.xlsx
+++ b/ReadandFitness/Read_record.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20730" windowHeight="8190" activeTab="3"/>
+    <workbookView windowHeight="17850"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="669" uniqueCount="415">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="666" uniqueCount="414">
   <si>
     <t>阅读记录</t>
   </si>
@@ -562,7 +562,7 @@
     <t>9787543071872</t>
   </si>
   <si>
-    <t>2020.10.12</t>
+    <t>2020.12.21</t>
   </si>
   <si>
     <t>时间地图：大历史，130亿年前至今</t>
@@ -596,9 +596,6 @@
   </si>
   <si>
     <t>2020.6.3</t>
-  </si>
-  <si>
-    <t>2020.11.11</t>
   </si>
   <si>
     <t>藏书目录</t>
@@ -1278,10 +1275,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -1324,38 +1321,15 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1369,9 +1343,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1386,7 +1367,52 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1400,23 +1426,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1429,24 +1441,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1461,7 +1458,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1473,31 +1536,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1509,7 +1614,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1521,127 +1638,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1655,17 +1652,59 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1687,54 +1726,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -1744,11 +1735,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1757,142 +1754,142 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="6" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="2" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="6" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="7" borderId="4" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="4" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="4" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="8" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -2472,8 +2469,8 @@
   <sheetPr/>
   <dimension ref="A1:I52"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="H44" sqref="H44"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="G46" sqref="G46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14" defaultRowHeight="25" customHeight="true"/>
@@ -3437,7 +3434,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="42" customHeight="true" spans="1:7">
+    <row r="42" customHeight="true" spans="1:5">
       <c r="A42">
         <f t="shared" si="4"/>
         <v>39</v>
@@ -3454,11 +3451,8 @@
       <c r="E42" s="6" t="s">
         <v>184</v>
       </c>
-      <c r="G42" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="43" customHeight="true" spans="1:7">
+    </row>
+    <row r="43" customHeight="true" spans="1:5">
       <c r="A43">
         <f t="shared" si="4"/>
         <v>40</v>
@@ -3475,11 +3469,8 @@
       <c r="E43" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="G43" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="44" customHeight="true" spans="1:7">
+    </row>
+    <row r="44" customHeight="true" spans="1:6">
       <c r="A44">
         <f t="shared" si="4"/>
         <v>41</v>
@@ -3498,9 +3489,6 @@
       </c>
       <c r="F44" t="s">
         <v>192</v>
-      </c>
-      <c r="G44" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="45" customHeight="true" spans="1:1">
@@ -3584,7 +3572,7 @@
   <sheetData>
     <row r="1" customHeight="true" spans="1:9">
       <c r="A1" s="5" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -3620,7 +3608,7 @@
         <v>4</v>
       </c>
       <c r="E3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F3" t="s">
         <v>6</v>
@@ -3674,10 +3662,10 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
+        <v>195</v>
+      </c>
+      <c r="F6" t="s">
         <v>196</v>
-      </c>
-      <c r="F6" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="7" customHeight="true" spans="1:6">
@@ -3686,16 +3674,16 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
+        <v>197</v>
+      </c>
+      <c r="C7" t="s">
         <v>198</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>199</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" s="6" t="s">
         <v>200</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>201</v>
       </c>
       <c r="F7" t="s">
         <v>45</v>
@@ -3707,16 +3695,16 @@
         <v>5</v>
       </c>
       <c r="B8" t="s">
+        <v>201</v>
+      </c>
+      <c r="C8" t="s">
         <v>202</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>203</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" s="6" t="s">
         <v>204</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>205</v>
       </c>
       <c r="F8" t="s">
         <v>45</v>
@@ -3728,16 +3716,16 @@
         <v>6</v>
       </c>
       <c r="B9" t="s">
+        <v>205</v>
+      </c>
+      <c r="C9" t="s">
         <v>206</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>207</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" s="6" t="s">
         <v>208</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>209</v>
       </c>
       <c r="F9" t="s">
         <v>45</v>
@@ -3749,16 +3737,16 @@
         <v>7</v>
       </c>
       <c r="B10" t="s">
+        <v>209</v>
+      </c>
+      <c r="C10" t="s">
         <v>210</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
         <v>211</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E10" s="6" t="s">
         <v>212</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>213</v>
       </c>
       <c r="F10" t="s">
         <v>45</v>
@@ -3770,16 +3758,16 @@
         <v>8</v>
       </c>
       <c r="B11" t="s">
+        <v>213</v>
+      </c>
+      <c r="C11" t="s">
         <v>214</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
+        <v>203</v>
+      </c>
+      <c r="E11" s="6" t="s">
         <v>215</v>
-      </c>
-      <c r="D11" t="s">
-        <v>204</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>216</v>
       </c>
       <c r="F11" t="s">
         <v>45</v>
@@ -3791,16 +3779,16 @@
         <v>9</v>
       </c>
       <c r="B12" t="s">
+        <v>216</v>
+      </c>
+      <c r="C12" t="s">
         <v>217</v>
-      </c>
-      <c r="C12" t="s">
-        <v>218</v>
       </c>
       <c r="D12" t="s">
         <v>48</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="F12" t="s">
         <v>45</v>
@@ -3812,16 +3800,16 @@
         <v>10</v>
       </c>
       <c r="B13" t="s">
+        <v>219</v>
+      </c>
+      <c r="C13" t="s">
         <v>220</v>
-      </c>
-      <c r="C13" t="s">
-        <v>221</v>
       </c>
       <c r="D13" t="s">
         <v>48</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F13" t="s">
         <v>45</v>
@@ -3833,16 +3821,16 @@
         <v>11</v>
       </c>
       <c r="B14" t="s">
+        <v>222</v>
+      </c>
+      <c r="C14" t="s">
         <v>223</v>
-      </c>
-      <c r="C14" t="s">
-        <v>224</v>
       </c>
       <c r="D14" t="s">
         <v>48</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F14" t="s">
         <v>45</v>
@@ -3854,16 +3842,16 @@
         <v>12</v>
       </c>
       <c r="B15" t="s">
+        <v>225</v>
+      </c>
+      <c r="C15" t="s">
         <v>226</v>
       </c>
-      <c r="C15" t="s">
+      <c r="D15" t="s">
         <v>227</v>
       </c>
-      <c r="D15" t="s">
+      <c r="E15" s="6" t="s">
         <v>228</v>
-      </c>
-      <c r="E15" s="6" t="s">
-        <v>229</v>
       </c>
       <c r="F15" t="s">
         <v>45</v>
@@ -3875,16 +3863,16 @@
         <v>13</v>
       </c>
       <c r="B16" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C16" t="s">
         <v>179</v>
       </c>
       <c r="D16" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F16" t="s">
         <v>45</v>
@@ -3896,16 +3884,16 @@
         <v>14</v>
       </c>
       <c r="B17" t="s">
+        <v>231</v>
+      </c>
+      <c r="C17" t="s">
         <v>232</v>
       </c>
-      <c r="C17" t="s">
+      <c r="D17" t="s">
         <v>233</v>
       </c>
-      <c r="D17" t="s">
+      <c r="E17" s="6" t="s">
         <v>234</v>
-      </c>
-      <c r="E17" s="6" t="s">
-        <v>235</v>
       </c>
       <c r="F17" t="s">
         <v>45</v>
@@ -3917,16 +3905,16 @@
         <v>15</v>
       </c>
       <c r="B18" t="s">
+        <v>235</v>
+      </c>
+      <c r="C18" t="s">
+        <v>206</v>
+      </c>
+      <c r="D18" t="s">
+        <v>207</v>
+      </c>
+      <c r="E18" s="6" t="s">
         <v>236</v>
-      </c>
-      <c r="C18" t="s">
-        <v>207</v>
-      </c>
-      <c r="D18" t="s">
-        <v>208</v>
-      </c>
-      <c r="E18" s="6" t="s">
-        <v>237</v>
       </c>
       <c r="F18" t="s">
         <v>45</v>
@@ -3938,16 +3926,16 @@
         <v>16</v>
       </c>
       <c r="B19" t="s">
+        <v>237</v>
+      </c>
+      <c r="C19" t="s">
         <v>238</v>
       </c>
-      <c r="C19" t="s">
+      <c r="D19" t="s">
         <v>239</v>
       </c>
-      <c r="D19" t="s">
+      <c r="E19" s="6" t="s">
         <v>240</v>
-      </c>
-      <c r="E19" s="6" t="s">
-        <v>241</v>
       </c>
       <c r="F19" t="s">
         <v>45</v>
@@ -4022,16 +4010,16 @@
         <v>20</v>
       </c>
       <c r="B23" t="s">
+        <v>241</v>
+      </c>
+      <c r="C23" t="s">
         <v>242</v>
-      </c>
-      <c r="C23" t="s">
-        <v>243</v>
       </c>
       <c r="D23" t="s">
         <v>48</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="F23" t="s">
         <v>86</v>
@@ -4043,16 +4031,16 @@
         <v>21</v>
       </c>
       <c r="B24" t="s">
+        <v>244</v>
+      </c>
+      <c r="C24" t="s">
         <v>245</v>
       </c>
-      <c r="C24" t="s">
+      <c r="D24" t="s">
         <v>246</v>
       </c>
-      <c r="D24" t="s">
+      <c r="E24" s="6" t="s">
         <v>247</v>
-      </c>
-      <c r="E24" s="6" t="s">
-        <v>248</v>
       </c>
       <c r="F24" t="s">
         <v>86</v>
@@ -4064,16 +4052,16 @@
         <v>22</v>
       </c>
       <c r="B25" t="s">
+        <v>248</v>
+      </c>
+      <c r="C25" t="s">
         <v>249</v>
-      </c>
-      <c r="C25" t="s">
-        <v>250</v>
       </c>
       <c r="D25" t="s">
         <v>56</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F25" t="s">
         <v>86</v>
@@ -4085,16 +4073,16 @@
         <v>23</v>
       </c>
       <c r="B26" t="s">
+        <v>251</v>
+      </c>
+      <c r="C26" t="s">
         <v>252</v>
       </c>
-      <c r="C26" t="s">
+      <c r="D26" t="s">
         <v>253</v>
       </c>
-      <c r="D26" t="s">
+      <c r="E26" s="6" t="s">
         <v>254</v>
-      </c>
-      <c r="E26" s="6" t="s">
-        <v>255</v>
       </c>
       <c r="F26" t="s">
         <v>86</v>
@@ -4106,16 +4094,16 @@
         <v>24</v>
       </c>
       <c r="B27" t="s">
+        <v>255</v>
+      </c>
+      <c r="C27" t="s">
         <v>256</v>
-      </c>
-      <c r="C27" t="s">
-        <v>257</v>
       </c>
       <c r="D27" t="s">
         <v>135</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F27" t="s">
         <v>86</v>
@@ -4130,16 +4118,16 @@
         <v>68</v>
       </c>
       <c r="C28" t="s">
+        <v>258</v>
+      </c>
+      <c r="D28" t="s">
         <v>259</v>
       </c>
-      <c r="D28" t="s">
+      <c r="E28" s="6" t="s">
         <v>260</v>
       </c>
-      <c r="E28" s="6" t="s">
+      <c r="F28" t="s">
         <v>261</v>
-      </c>
-      <c r="F28" t="s">
-        <v>262</v>
       </c>
     </row>
     <row r="29" customHeight="true" spans="1:6">
@@ -4148,19 +4136,19 @@
         <v>26</v>
       </c>
       <c r="B29" t="s">
+        <v>262</v>
+      </c>
+      <c r="C29" t="s">
         <v>263</v>
       </c>
-      <c r="C29" t="s">
+      <c r="D29" t="s">
         <v>264</v>
       </c>
-      <c r="D29" t="s">
+      <c r="E29" s="6" t="s">
         <v>265</v>
       </c>
-      <c r="E29" s="6" t="s">
-        <v>266</v>
-      </c>
       <c r="F29" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="30" customHeight="true" spans="1:6">
@@ -4169,19 +4157,19 @@
         <v>27</v>
       </c>
       <c r="B30" t="s">
+        <v>266</v>
+      </c>
+      <c r="C30" t="s">
         <v>267</v>
       </c>
-      <c r="C30" t="s">
+      <c r="D30" t="s">
         <v>268</v>
       </c>
-      <c r="D30" t="s">
+      <c r="E30" s="6" t="s">
         <v>269</v>
       </c>
-      <c r="E30" s="6" t="s">
-        <v>270</v>
-      </c>
       <c r="F30" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="31" customHeight="true" spans="1:6">
@@ -4190,19 +4178,19 @@
         <v>28</v>
       </c>
       <c r="B31" t="s">
+        <v>270</v>
+      </c>
+      <c r="C31" t="s">
         <v>271</v>
       </c>
-      <c r="C31" t="s">
+      <c r="D31" t="s">
         <v>272</v>
       </c>
-      <c r="D31" t="s">
+      <c r="E31" s="6" t="s">
         <v>273</v>
       </c>
-      <c r="E31" s="6" t="s">
-        <v>274</v>
-      </c>
       <c r="F31" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="32" customHeight="true" spans="1:6">
@@ -4211,19 +4199,19 @@
         <v>29</v>
       </c>
       <c r="B32" t="s">
+        <v>274</v>
+      </c>
+      <c r="C32" t="s">
         <v>275</v>
       </c>
-      <c r="C32" t="s">
+      <c r="D32" t="s">
         <v>276</v>
       </c>
-      <c r="D32" t="s">
+      <c r="E32" s="6" t="s">
         <v>277</v>
       </c>
-      <c r="E32" s="6" t="s">
-        <v>278</v>
-      </c>
       <c r="F32" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="33" customHeight="true" spans="1:6">
@@ -4232,19 +4220,19 @@
         <v>30</v>
       </c>
       <c r="B33" t="s">
+        <v>278</v>
+      </c>
+      <c r="C33" t="s">
         <v>279</v>
-      </c>
-      <c r="C33" t="s">
-        <v>280</v>
       </c>
       <c r="D33" t="s">
         <v>60</v>
       </c>
       <c r="E33" s="6" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="F33" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="34" customHeight="true" spans="1:6">
@@ -4253,19 +4241,19 @@
         <v>31</v>
       </c>
       <c r="B34" t="s">
+        <v>281</v>
+      </c>
+      <c r="C34" t="s">
         <v>282</v>
-      </c>
-      <c r="C34" t="s">
-        <v>283</v>
       </c>
       <c r="D34" t="s">
         <v>60</v>
       </c>
       <c r="E34" s="6" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F34" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="35" customHeight="true" spans="1:6">
@@ -4274,19 +4262,19 @@
         <v>32</v>
       </c>
       <c r="B35" t="s">
+        <v>284</v>
+      </c>
+      <c r="C35" t="s">
         <v>285</v>
-      </c>
-      <c r="C35" t="s">
-        <v>286</v>
       </c>
       <c r="D35" t="s">
         <v>60</v>
       </c>
       <c r="E35" s="6" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="F35" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="36" customHeight="true" spans="1:6">
@@ -4295,19 +4283,19 @@
         <v>33</v>
       </c>
       <c r="B36" t="s">
+        <v>287</v>
+      </c>
+      <c r="C36" t="s">
         <v>288</v>
-      </c>
-      <c r="C36" t="s">
-        <v>289</v>
       </c>
       <c r="D36" t="s">
         <v>60</v>
       </c>
       <c r="E36" s="6" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="F36" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="37" customHeight="true" spans="1:6">
@@ -4316,19 +4304,19 @@
         <v>34</v>
       </c>
       <c r="B37" t="s">
+        <v>290</v>
+      </c>
+      <c r="C37" t="s">
         <v>291</v>
-      </c>
-      <c r="C37" t="s">
-        <v>292</v>
       </c>
       <c r="D37" t="s">
         <v>60</v>
       </c>
       <c r="E37" s="6" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F37" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="38" customHeight="true" spans="1:6">
@@ -4337,19 +4325,19 @@
         <v>35</v>
       </c>
       <c r="B38" t="s">
+        <v>293</v>
+      </c>
+      <c r="C38" t="s">
         <v>294</v>
-      </c>
-      <c r="C38" t="s">
-        <v>295</v>
       </c>
       <c r="D38" t="s">
         <v>60</v>
       </c>
       <c r="E38" s="6" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F38" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="39" customHeight="true" spans="1:6">
@@ -4358,16 +4346,16 @@
         <v>36</v>
       </c>
       <c r="B39" t="s">
+        <v>296</v>
+      </c>
+      <c r="C39" t="s">
         <v>297</v>
-      </c>
-      <c r="C39" t="s">
-        <v>298</v>
       </c>
       <c r="D39" t="s">
         <v>48</v>
       </c>
       <c r="E39" s="6" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="F39" t="s">
         <v>101</v>
@@ -4400,16 +4388,16 @@
         <v>38</v>
       </c>
       <c r="B41" t="s">
+        <v>299</v>
+      </c>
+      <c r="C41" t="s">
         <v>300</v>
-      </c>
-      <c r="C41" t="s">
-        <v>301</v>
       </c>
       <c r="D41" t="s">
         <v>48</v>
       </c>
       <c r="E41" s="6" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="F41" t="s">
         <v>101</v>
@@ -4442,16 +4430,16 @@
         <v>40</v>
       </c>
       <c r="B43" t="s">
+        <v>262</v>
+      </c>
+      <c r="C43" t="s">
         <v>263</v>
       </c>
-      <c r="C43" t="s">
-        <v>264</v>
-      </c>
       <c r="D43" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E43" s="6" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="F43" t="s">
         <v>118</v>
@@ -4463,16 +4451,16 @@
         <v>41</v>
       </c>
       <c r="B44" t="s">
+        <v>303</v>
+      </c>
+      <c r="C44" t="s">
         <v>304</v>
       </c>
-      <c r="C44" t="s">
+      <c r="D44" t="s">
         <v>305</v>
       </c>
-      <c r="D44" t="s">
+      <c r="E44" s="6" t="s">
         <v>306</v>
-      </c>
-      <c r="E44" s="6" t="s">
-        <v>307</v>
       </c>
       <c r="F44" t="s">
         <v>118</v>
@@ -4761,7 +4749,7 @@
   <sheetData>
     <row r="1" customHeight="true" spans="1:9">
       <c r="A1" s="3" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -4818,7 +4806,7 @@
         <v>25</v>
       </c>
       <c r="E4" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="F4" t="s">
         <v>27</v>
@@ -4839,7 +4827,7 @@
         <v>25</v>
       </c>
       <c r="E5" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="F5" t="s">
         <v>32</v>
@@ -4860,7 +4848,7 @@
         <v>25</v>
       </c>
       <c r="E6" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="F6" t="s">
         <v>36</v>
@@ -4872,19 +4860,19 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C7" t="s">
+        <v>311</v>
+      </c>
+      <c r="D7" t="s">
         <v>312</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>313</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>314</v>
-      </c>
-      <c r="F7" t="s">
-        <v>315</v>
       </c>
     </row>
     <row r="8" customHeight="true" spans="1:6">
@@ -4893,19 +4881,19 @@
         <v>5</v>
       </c>
       <c r="B8" t="s">
+        <v>315</v>
+      </c>
+      <c r="C8" t="s">
         <v>316</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>317</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>318</v>
       </c>
-      <c r="E8" t="s">
-        <v>319</v>
-      </c>
       <c r="F8" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="9" customHeight="true" spans="1:6">
@@ -4914,19 +4902,19 @@
         <v>6</v>
       </c>
       <c r="B9" t="s">
+        <v>319</v>
+      </c>
+      <c r="C9" t="s">
+        <v>226</v>
+      </c>
+      <c r="D9" t="s">
+        <v>227</v>
+      </c>
+      <c r="E9" t="s">
         <v>320</v>
       </c>
-      <c r="C9" t="s">
-        <v>227</v>
-      </c>
-      <c r="D9" t="s">
-        <v>228</v>
-      </c>
-      <c r="E9" t="s">
-        <v>321</v>
-      </c>
       <c r="F9" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="10" customHeight="true" spans="1:6">
@@ -4965,7 +4953,7 @@
         <v>48</v>
       </c>
       <c r="E11" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="F11" t="s">
         <v>45</v>
@@ -5007,7 +4995,7 @@
         <v>43</v>
       </c>
       <c r="E13" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F13" t="s">
         <v>45</v>
@@ -5019,16 +5007,16 @@
         <v>11</v>
       </c>
       <c r="B14" t="s">
+        <v>323</v>
+      </c>
+      <c r="C14" t="s">
         <v>324</v>
       </c>
-      <c r="C14" t="s">
+      <c r="D14" t="s">
         <v>325</v>
       </c>
-      <c r="D14" t="s">
+      <c r="E14" t="s">
         <v>326</v>
-      </c>
-      <c r="E14" t="s">
-        <v>327</v>
       </c>
       <c r="F14" t="s">
         <v>45</v>
@@ -5064,13 +5052,13 @@
         <v>78</v>
       </c>
       <c r="C16" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D16" t="s">
         <v>43</v>
       </c>
       <c r="E16" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F16" t="s">
         <v>62</v>
@@ -5103,16 +5091,16 @@
         <v>15</v>
       </c>
       <c r="B18" t="s">
+        <v>329</v>
+      </c>
+      <c r="C18" t="s">
         <v>330</v>
       </c>
-      <c r="C18" t="s">
+      <c r="D18" t="s">
+        <v>211</v>
+      </c>
+      <c r="E18" t="s">
         <v>331</v>
-      </c>
-      <c r="D18" t="s">
-        <v>212</v>
-      </c>
-      <c r="E18" t="s">
-        <v>332</v>
       </c>
       <c r="F18" t="s">
         <v>67</v>
@@ -5145,19 +5133,19 @@
         <v>17</v>
       </c>
       <c r="B20" t="s">
+        <v>332</v>
+      </c>
+      <c r="C20" t="s">
         <v>333</v>
       </c>
-      <c r="C20" t="s">
+      <c r="D20" t="s">
         <v>334</v>
       </c>
-      <c r="D20" t="s">
+      <c r="E20" t="s">
         <v>335</v>
       </c>
-      <c r="E20" t="s">
+      <c r="F20" t="s">
         <v>336</v>
-      </c>
-      <c r="F20" t="s">
-        <v>337</v>
       </c>
     </row>
     <row r="21" customHeight="true" spans="1:6">
@@ -5166,16 +5154,16 @@
         <v>18</v>
       </c>
       <c r="B21" t="s">
+        <v>337</v>
+      </c>
+      <c r="C21" t="s">
         <v>338</v>
       </c>
-      <c r="C21" t="s">
+      <c r="D21" t="s">
         <v>339</v>
       </c>
-      <c r="D21" t="s">
+      <c r="E21" t="s">
         <v>340</v>
-      </c>
-      <c r="E21" t="s">
-        <v>341</v>
       </c>
       <c r="F21" t="s">
         <v>192</v>
@@ -5187,16 +5175,16 @@
         <v>19</v>
       </c>
       <c r="B22" t="s">
+        <v>341</v>
+      </c>
+      <c r="C22" t="s">
         <v>342</v>
-      </c>
-      <c r="C22" t="s">
-        <v>343</v>
       </c>
       <c r="D22" t="s">
         <v>48</v>
       </c>
       <c r="E22" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="F22" t="s">
         <v>192</v>
@@ -5208,16 +5196,16 @@
         <v>20</v>
       </c>
       <c r="B23" t="s">
+        <v>344</v>
+      </c>
+      <c r="C23" t="s">
         <v>345</v>
-      </c>
-      <c r="C23" t="s">
-        <v>346</v>
       </c>
       <c r="D23" t="s">
         <v>56</v>
       </c>
       <c r="E23" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="F23" t="s">
         <v>192</v>
@@ -5229,16 +5217,16 @@
         <v>21</v>
       </c>
       <c r="B24" t="s">
+        <v>347</v>
+      </c>
+      <c r="C24" t="s">
         <v>348</v>
-      </c>
-      <c r="C24" t="s">
-        <v>349</v>
       </c>
       <c r="D24" t="s">
         <v>43</v>
       </c>
       <c r="E24" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="F24" t="s">
         <v>192</v>
@@ -5250,16 +5238,16 @@
         <v>22</v>
       </c>
       <c r="B25" t="s">
+        <v>350</v>
+      </c>
+      <c r="C25" t="s">
         <v>351</v>
-      </c>
-      <c r="C25" t="s">
-        <v>352</v>
       </c>
       <c r="D25" t="s">
         <v>25</v>
       </c>
       <c r="E25" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="F25" t="s">
         <v>192</v>
@@ -5292,19 +5280,19 @@
         <v>24</v>
       </c>
       <c r="B27" s="4" t="s">
+        <v>353</v>
+      </c>
+      <c r="C27" t="s">
         <v>354</v>
       </c>
-      <c r="C27" t="s">
+      <c r="D27" t="s">
         <v>355</v>
       </c>
-      <c r="D27" t="s">
+      <c r="E27" t="s">
         <v>356</v>
       </c>
-      <c r="E27" t="s">
+      <c r="F27" t="s">
         <v>357</v>
-      </c>
-      <c r="F27" t="s">
-        <v>358</v>
       </c>
     </row>
     <row r="28" customHeight="true" spans="1:6">
@@ -5313,19 +5301,19 @@
         <v>25</v>
       </c>
       <c r="B28" t="s">
+        <v>358</v>
+      </c>
+      <c r="C28" s="4" t="s">
         <v>359</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>360</v>
       </c>
       <c r="D28" t="s">
         <v>105</v>
       </c>
       <c r="E28" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="F28" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="29" customHeight="true" spans="1:6">
@@ -5334,19 +5322,19 @@
         <v>26</v>
       </c>
       <c r="B29" t="s">
+        <v>361</v>
+      </c>
+      <c r="C29" t="s">
         <v>362</v>
-      </c>
-      <c r="C29" t="s">
-        <v>363</v>
       </c>
       <c r="D29" t="s">
         <v>190</v>
       </c>
       <c r="E29" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="F29" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="30" customHeight="true" spans="1:6">
@@ -5355,19 +5343,19 @@
         <v>27</v>
       </c>
       <c r="B30" t="s">
+        <v>364</v>
+      </c>
+      <c r="C30" t="s">
         <v>365</v>
-      </c>
-      <c r="C30" t="s">
-        <v>366</v>
       </c>
       <c r="D30" t="s">
         <v>48</v>
       </c>
       <c r="E30" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="F30" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="31" customHeight="true" spans="1:6">
@@ -5376,19 +5364,19 @@
         <v>28</v>
       </c>
       <c r="B31" t="s">
+        <v>367</v>
+      </c>
+      <c r="C31" t="s">
         <v>368</v>
       </c>
-      <c r="C31" t="s">
+      <c r="D31" t="s">
         <v>369</v>
       </c>
-      <c r="D31" t="s">
+      <c r="E31" t="s">
         <v>370</v>
       </c>
-      <c r="E31" t="s">
-        <v>371</v>
-      </c>
       <c r="F31" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="32" customHeight="true" spans="1:6">
@@ -5397,19 +5385,19 @@
         <v>29</v>
       </c>
       <c r="B32" t="s">
+        <v>371</v>
+      </c>
+      <c r="C32" t="s">
+        <v>249</v>
+      </c>
+      <c r="D32" t="s">
         <v>372</v>
       </c>
-      <c r="C32" t="s">
-        <v>250</v>
-      </c>
-      <c r="D32" t="s">
+      <c r="E32" t="s">
         <v>373</v>
       </c>
-      <c r="E32" t="s">
+      <c r="F32" t="s">
         <v>374</v>
-      </c>
-      <c r="F32" t="s">
-        <v>375</v>
       </c>
     </row>
     <row r="33" customHeight="true" spans="1:6">
@@ -5427,7 +5415,7 @@
         <v>48</v>
       </c>
       <c r="E33" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="F33" t="s">
         <v>86</v>
@@ -5448,7 +5436,7 @@
         <v>105</v>
       </c>
       <c r="E34" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="F34" t="s">
         <v>86</v>
@@ -5460,16 +5448,16 @@
         <v>32</v>
       </c>
       <c r="B35" t="s">
+        <v>377</v>
+      </c>
+      <c r="C35" t="s">
         <v>378</v>
-      </c>
-      <c r="C35" t="s">
-        <v>379</v>
       </c>
       <c r="D35" t="s">
         <v>48</v>
       </c>
       <c r="E35" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="F35" t="s">
         <v>86</v>
@@ -5481,16 +5469,16 @@
         <v>33</v>
       </c>
       <c r="B36" t="s">
+        <v>380</v>
+      </c>
+      <c r="C36" t="s">
         <v>381</v>
-      </c>
-      <c r="C36" t="s">
-        <v>382</v>
       </c>
       <c r="D36" t="s">
         <v>160</v>
       </c>
       <c r="E36" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="F36" t="s">
         <v>86</v>
@@ -5544,16 +5532,16 @@
         <v>36</v>
       </c>
       <c r="B39" t="s">
+        <v>383</v>
+      </c>
+      <c r="C39" t="s">
         <v>384</v>
       </c>
-      <c r="C39" t="s">
+      <c r="D39" t="s">
         <v>385</v>
       </c>
-      <c r="D39" t="s">
+      <c r="E39" t="s">
         <v>386</v>
-      </c>
-      <c r="E39" t="s">
-        <v>387</v>
       </c>
       <c r="F39" t="s">
         <v>86</v>
@@ -5565,16 +5553,16 @@
         <v>37</v>
       </c>
       <c r="B40" t="s">
+        <v>387</v>
+      </c>
+      <c r="C40" t="s">
         <v>388</v>
-      </c>
-      <c r="C40" t="s">
-        <v>389</v>
       </c>
       <c r="D40" t="s">
         <v>56</v>
       </c>
       <c r="E40" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="F40" t="s">
         <v>86</v>
@@ -5589,13 +5577,13 @@
         <v>182</v>
       </c>
       <c r="C41" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D41" t="s">
         <v>48</v>
       </c>
       <c r="E41" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F41" t="s">
         <v>86</v>
@@ -5663,7 +5651,7 @@
   <sheetPr/>
   <dimension ref="A1:N45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="O4" sqref="O4"/>
     </sheetView>
   </sheetViews>
@@ -5686,74 +5674,74 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
+        <v>392</v>
+      </c>
+      <c r="C3" t="s">
         <v>393</v>
-      </c>
-      <c r="C3" t="s">
-        <v>394</v>
       </c>
     </row>
     <row r="4" customHeight="true" spans="3:14">
       <c r="C4" t="s">
+        <v>394</v>
+      </c>
+      <c r="D4" t="s">
         <v>395</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>396</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>397</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>398</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>399</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>400</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>401</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>402</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>403</v>
       </c>
-      <c r="L4" t="s">
+      <c r="M4" t="s">
         <v>404</v>
       </c>
-      <c r="M4" t="s">
+      <c r="N4" t="s">
         <v>405</v>
-      </c>
-      <c r="N4" t="s">
-        <v>406</v>
       </c>
     </row>
     <row r="5" customHeight="true" spans="3:3">
       <c r="C5" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="6" customHeight="true" spans="3:3">
       <c r="C6" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="7" customHeight="true" spans="3:5">
       <c r="C7" t="s">
+        <v>408</v>
+      </c>
+      <c r="D7" t="s">
         <v>409</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>410</v>
-      </c>
-      <c r="E7" t="s">
-        <v>411</v>
       </c>
     </row>
     <row r="13" customHeight="true" spans="4:8">
       <c r="D13" s="1" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
@@ -5769,7 +5757,7 @@
     </row>
     <row r="36" customHeight="true" spans="1:12">
       <c r="A36" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
@@ -5841,7 +5829,7 @@
     </row>
     <row r="42" customHeight="true" spans="1:11">
       <c r="A42" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>

--- a/ReadandFitness/Read_record.xlsx
+++ b/ReadandFitness/Read_record.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17850"/>
+    <workbookView windowHeight="17850" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="666" uniqueCount="414">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="677" uniqueCount="424">
   <si>
     <t>阅读记录</t>
   </si>
@@ -1253,6 +1253,36 @@
   </si>
   <si>
     <t>哈迪斯和空洞骑士在墨西哥服买，便宜；</t>
+  </si>
+  <si>
+    <t>购买的switch游戏</t>
+  </si>
+  <si>
+    <t>金额</t>
+  </si>
+  <si>
+    <t>塞尔达传说：旷野之息</t>
+  </si>
+  <si>
+    <t>总共充值了500（425元） + 100（87元） HKD + 40（242元） 美金</t>
+  </si>
+  <si>
+    <t>塞尔达传说：旷野之息（DLC）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">149 HKD </t>
+  </si>
+  <si>
+    <t>马里奥派对</t>
+  </si>
+  <si>
+    <t>39.99 美金</t>
+  </si>
+  <si>
+    <t>动物森友会</t>
+  </si>
+  <si>
+    <t>429 HKD</t>
   </si>
   <si>
     <t>你童年时期和少年时期主要是和谁在一起生活？你对他们是如何评价？你最欣赏的亲人是谁？为什么？和奶奶，弟弟。
@@ -1275,8 +1305,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
@@ -1320,32 +1350,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1366,18 +1372,27 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1389,10 +1404,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1418,11 +1433,34 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1435,15 +1473,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1458,7 +1488,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1470,175 +1662,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1649,24 +1679,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1694,6 +1706,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1709,6 +1730,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1720,17 +1761,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1754,142 +1784,142 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="6" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="7" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="4" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="2" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="2" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="4" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="8" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="8" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -1899,9 +1929,12 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
@@ -2469,7 +2502,7 @@
   <sheetPr/>
   <dimension ref="A1:I52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+    <sheetView topLeftCell="A21" workbookViewId="0">
       <selection activeCell="G46" sqref="G46"/>
     </sheetView>
   </sheetViews>
@@ -2486,28 +2519,28 @@
   </cols>
   <sheetData>
     <row r="1" customHeight="true" spans="1:9">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
     </row>
     <row r="2" customHeight="true" spans="1:9">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
     </row>
     <row r="3" customHeight="true" spans="1:8">
       <c r="A3" t="s">
@@ -2549,13 +2582,13 @@
       <c r="D4" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="F4" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="G4" s="3" t="s">
         <v>14</v>
       </c>
       <c r="H4" t="s">
@@ -2576,13 +2609,13 @@
       <c r="D5" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F5" t="s">
         <v>18</v>
       </c>
-      <c r="G5" s="2"/>
+      <c r="G5" s="3"/>
       <c r="H5" t="s">
         <v>19</v>
       </c>
@@ -2598,7 +2631,7 @@
       <c r="C6" t="s">
         <v>21</v>
       </c>
-      <c r="G6" s="2"/>
+      <c r="G6" s="3"/>
       <c r="H6" t="s">
         <v>22</v>
       </c>
@@ -2623,7 +2656,7 @@
       <c r="F7" t="s">
         <v>27</v>
       </c>
-      <c r="G7" s="2"/>
+      <c r="G7" s="3"/>
       <c r="H7" s="1" t="s">
         <v>28</v>
       </c>
@@ -2648,7 +2681,7 @@
       <c r="F8" t="s">
         <v>32</v>
       </c>
-      <c r="G8" s="2"/>
+      <c r="G8" s="3"/>
       <c r="H8" s="1"/>
     </row>
     <row r="9" customHeight="true" spans="1:8">
@@ -2671,7 +2704,7 @@
       <c r="F9" t="s">
         <v>36</v>
       </c>
-      <c r="G9" s="2"/>
+      <c r="G9" s="3"/>
       <c r="H9" s="1"/>
     </row>
     <row r="10" customHeight="true" spans="1:8">
@@ -2685,7 +2718,7 @@
       <c r="C10" t="s">
         <v>38</v>
       </c>
-      <c r="G10" s="2"/>
+      <c r="G10" s="3"/>
       <c r="H10" s="1"/>
     </row>
     <row r="11" customHeight="true" spans="1:8">
@@ -2699,7 +2732,7 @@
       <c r="C11" t="s">
         <v>40</v>
       </c>
-      <c r="G11" s="2"/>
+      <c r="G11" s="3"/>
       <c r="H11" s="1"/>
     </row>
     <row r="12" customHeight="true" spans="1:8">
@@ -2722,7 +2755,7 @@
       <c r="F12" t="s">
         <v>45</v>
       </c>
-      <c r="G12" s="2"/>
+      <c r="G12" s="3"/>
       <c r="H12" s="1"/>
     </row>
     <row r="13" customHeight="true" spans="1:8">
@@ -2745,7 +2778,7 @@
       <c r="F13" t="s">
         <v>45</v>
       </c>
-      <c r="G13" s="2"/>
+      <c r="G13" s="3"/>
       <c r="H13" s="1"/>
     </row>
     <row r="14" customHeight="true" spans="1:8">
@@ -2768,7 +2801,7 @@
       <c r="F14" t="s">
         <v>45</v>
       </c>
-      <c r="G14" s="2"/>
+      <c r="G14" s="3"/>
       <c r="H14" s="1"/>
     </row>
     <row r="15" customHeight="true" spans="1:8">
@@ -2791,7 +2824,7 @@
       <c r="F15" t="s">
         <v>45</v>
       </c>
-      <c r="G15" s="2"/>
+      <c r="G15" s="3"/>
       <c r="H15" s="1"/>
     </row>
     <row r="16" customHeight="true" spans="1:8">
@@ -2814,7 +2847,7 @@
       <c r="F16" t="s">
         <v>62</v>
       </c>
-      <c r="G16" s="2"/>
+      <c r="G16" s="3"/>
       <c r="H16" s="1"/>
     </row>
     <row r="17" customHeight="true" spans="1:8">
@@ -2837,7 +2870,7 @@
       <c r="F17" t="s">
         <v>67</v>
       </c>
-      <c r="G17" s="2"/>
+      <c r="G17" s="3"/>
       <c r="H17" s="1"/>
     </row>
     <row r="18" customHeight="true" spans="1:8">
@@ -2854,10 +2887,10 @@
       <c r="D18" t="s">
         <v>70</v>
       </c>
-      <c r="E18" s="6" t="s">
+      <c r="E18" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="G18" s="2"/>
+      <c r="G18" s="3"/>
       <c r="H18" t="s">
         <v>72</v>
       </c>
@@ -2876,13 +2909,13 @@
       <c r="D19" t="s">
         <v>56</v>
       </c>
-      <c r="E19" s="6" t="s">
+      <c r="E19" s="7" t="s">
         <v>75</v>
       </c>
       <c r="F19" t="s">
         <v>76</v>
       </c>
-      <c r="G19" s="2"/>
+      <c r="G19" s="3"/>
       <c r="H19" t="s">
         <v>77</v>
       </c>
@@ -2901,13 +2934,13 @@
       <c r="D20" t="s">
         <v>43</v>
       </c>
-      <c r="E20" s="6" t="s">
+      <c r="E20" s="7" t="s">
         <v>80</v>
       </c>
       <c r="F20" t="s">
         <v>76</v>
       </c>
-      <c r="G20" s="2"/>
+      <c r="G20" s="3"/>
       <c r="H20" t="s">
         <v>81</v>
       </c>
@@ -2953,7 +2986,7 @@
       <c r="D22" t="s">
         <v>90</v>
       </c>
-      <c r="E22" s="6" t="s">
+      <c r="E22" s="7" t="s">
         <v>91</v>
       </c>
       <c r="F22" t="s">
@@ -3061,7 +3094,7 @@
       <c r="D26" t="s">
         <v>110</v>
       </c>
-      <c r="E26" s="6" t="s">
+      <c r="E26" s="7" t="s">
         <v>111</v>
       </c>
       <c r="G26" t="s">
@@ -3085,7 +3118,7 @@
       <c r="D27" t="s">
         <v>116</v>
       </c>
-      <c r="E27" s="6" t="s">
+      <c r="E27" s="7" t="s">
         <v>117</v>
       </c>
       <c r="F27" t="s">
@@ -3112,7 +3145,7 @@
       <c r="D28" t="s">
         <v>122</v>
       </c>
-      <c r="E28" s="6" t="s">
+      <c r="E28" s="7" t="s">
         <v>123</v>
       </c>
       <c r="G28" t="s">
@@ -3184,7 +3217,7 @@
       <c r="D31" t="s">
         <v>135</v>
       </c>
-      <c r="E31" s="6" t="s">
+      <c r="E31" s="7" t="s">
         <v>136</v>
       </c>
       <c r="F31" t="s">
@@ -3211,7 +3244,7 @@
       <c r="D32" t="s">
         <v>43</v>
       </c>
-      <c r="E32" s="6" t="s">
+      <c r="E32" s="7" t="s">
         <v>141</v>
       </c>
       <c r="F32" t="s">
@@ -3238,7 +3271,7 @@
       <c r="D33" t="s">
         <v>56</v>
       </c>
-      <c r="E33" s="6" t="s">
+      <c r="E33" s="7" t="s">
         <v>146</v>
       </c>
       <c r="G33" t="s">
@@ -3262,7 +3295,7 @@
       <c r="D34" t="s">
         <v>25</v>
       </c>
-      <c r="E34" s="6" t="s">
+      <c r="E34" s="7" t="s">
         <v>151</v>
       </c>
       <c r="G34" t="s">
@@ -3286,7 +3319,7 @@
       <c r="D35" t="s">
         <v>135</v>
       </c>
-      <c r="E35" s="6" t="s">
+      <c r="E35" s="7" t="s">
         <v>155</v>
       </c>
       <c r="G35" t="s">
@@ -3310,7 +3343,7 @@
       <c r="D36" t="s">
         <v>160</v>
       </c>
-      <c r="E36" s="6" t="s">
+      <c r="E36" s="7" t="s">
         <v>161</v>
       </c>
       <c r="G36" t="s">
@@ -3334,7 +3367,7 @@
       <c r="D37" t="s">
         <v>43</v>
       </c>
-      <c r="E37" s="6" t="s">
+      <c r="E37" s="7" t="s">
         <v>165</v>
       </c>
       <c r="G37" t="s">
@@ -3355,7 +3388,7 @@
       <c r="D38" t="s">
         <v>135</v>
       </c>
-      <c r="E38" s="6" t="s">
+      <c r="E38" s="7" t="s">
         <v>168</v>
       </c>
       <c r="G38" t="s">
@@ -3376,7 +3409,7 @@
       <c r="D39" t="s">
         <v>52</v>
       </c>
-      <c r="E39" s="6" t="s">
+      <c r="E39" s="7" t="s">
         <v>171</v>
       </c>
       <c r="G39" t="s">
@@ -3400,7 +3433,7 @@
       <c r="D40" t="s">
         <v>48</v>
       </c>
-      <c r="E40" s="6" t="s">
+      <c r="E40" s="7" t="s">
         <v>176</v>
       </c>
       <c r="F40" t="s">
@@ -3427,7 +3460,7 @@
       <c r="D41" t="s">
         <v>70</v>
       </c>
-      <c r="E41" s="6" t="s">
+      <c r="E41" s="7" t="s">
         <v>180</v>
       </c>
       <c r="G41" t="s">
@@ -3448,7 +3481,7 @@
       <c r="D42" t="s">
         <v>48</v>
       </c>
-      <c r="E42" s="6" t="s">
+      <c r="E42" s="7" t="s">
         <v>184</v>
       </c>
     </row>
@@ -3466,7 +3499,7 @@
       <c r="D43" t="s">
         <v>56</v>
       </c>
-      <c r="E43" s="6" t="s">
+      <c r="E43" s="7" t="s">
         <v>187</v>
       </c>
     </row>
@@ -3571,28 +3604,28 @@
   </cols>
   <sheetData>
     <row r="1" customHeight="true" spans="1:9">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="6" t="s">
         <v>193</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
     </row>
     <row r="2" customHeight="true" spans="1:9">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
     </row>
     <row r="3" customHeight="true" spans="1:6">
       <c r="A3" t="s">
@@ -3628,7 +3661,7 @@
       <c r="D4" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="F4" t="s">
@@ -3649,7 +3682,7 @@
       <c r="D5" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F5" t="s">
@@ -3682,7 +3715,7 @@
       <c r="D7" t="s">
         <v>199</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="E7" s="7" t="s">
         <v>200</v>
       </c>
       <c r="F7" t="s">
@@ -3703,7 +3736,7 @@
       <c r="D8" t="s">
         <v>203</v>
       </c>
-      <c r="E8" s="6" t="s">
+      <c r="E8" s="7" t="s">
         <v>204</v>
       </c>
       <c r="F8" t="s">
@@ -3724,7 +3757,7 @@
       <c r="D9" t="s">
         <v>207</v>
       </c>
-      <c r="E9" s="6" t="s">
+      <c r="E9" s="7" t="s">
         <v>208</v>
       </c>
       <c r="F9" t="s">
@@ -3745,7 +3778,7 @@
       <c r="D10" t="s">
         <v>211</v>
       </c>
-      <c r="E10" s="6" t="s">
+      <c r="E10" s="7" t="s">
         <v>212</v>
       </c>
       <c r="F10" t="s">
@@ -3766,7 +3799,7 @@
       <c r="D11" t="s">
         <v>203</v>
       </c>
-      <c r="E11" s="6" t="s">
+      <c r="E11" s="7" t="s">
         <v>215</v>
       </c>
       <c r="F11" t="s">
@@ -3787,7 +3820,7 @@
       <c r="D12" t="s">
         <v>48</v>
       </c>
-      <c r="E12" s="6" t="s">
+      <c r="E12" s="7" t="s">
         <v>218</v>
       </c>
       <c r="F12" t="s">
@@ -3808,7 +3841,7 @@
       <c r="D13" t="s">
         <v>48</v>
       </c>
-      <c r="E13" s="6" t="s">
+      <c r="E13" s="7" t="s">
         <v>221</v>
       </c>
       <c r="F13" t="s">
@@ -3829,7 +3862,7 @@
       <c r="D14" t="s">
         <v>48</v>
       </c>
-      <c r="E14" s="6" t="s">
+      <c r="E14" s="7" t="s">
         <v>224</v>
       </c>
       <c r="F14" t="s">
@@ -3850,7 +3883,7 @@
       <c r="D15" t="s">
         <v>227</v>
       </c>
-      <c r="E15" s="6" t="s">
+      <c r="E15" s="7" t="s">
         <v>228</v>
       </c>
       <c r="F15" t="s">
@@ -3871,7 +3904,7 @@
       <c r="D16" t="s">
         <v>211</v>
       </c>
-      <c r="E16" s="6" t="s">
+      <c r="E16" s="7" t="s">
         <v>230</v>
       </c>
       <c r="F16" t="s">
@@ -3892,7 +3925,7 @@
       <c r="D17" t="s">
         <v>233</v>
       </c>
-      <c r="E17" s="6" t="s">
+      <c r="E17" s="7" t="s">
         <v>234</v>
       </c>
       <c r="F17" t="s">
@@ -3913,7 +3946,7 @@
       <c r="D18" t="s">
         <v>207</v>
       </c>
-      <c r="E18" s="6" t="s">
+      <c r="E18" s="7" t="s">
         <v>236</v>
       </c>
       <c r="F18" t="s">
@@ -3934,7 +3967,7 @@
       <c r="D19" t="s">
         <v>239</v>
       </c>
-      <c r="E19" s="6" t="s">
+      <c r="E19" s="7" t="s">
         <v>240</v>
       </c>
       <c r="F19" t="s">
@@ -3955,7 +3988,7 @@
       <c r="D20" t="s">
         <v>56</v>
       </c>
-      <c r="E20" s="6" t="s">
+      <c r="E20" s="7" t="s">
         <v>75</v>
       </c>
       <c r="F20" t="s">
@@ -3976,7 +4009,7 @@
       <c r="D21" t="s">
         <v>43</v>
       </c>
-      <c r="E21" s="6" t="s">
+      <c r="E21" s="7" t="s">
         <v>80</v>
       </c>
       <c r="F21" t="s">
@@ -3997,7 +4030,7 @@
       <c r="D22" t="s">
         <v>90</v>
       </c>
-      <c r="E22" s="6" t="s">
+      <c r="E22" s="7" t="s">
         <v>91</v>
       </c>
       <c r="F22" t="s">
@@ -4018,7 +4051,7 @@
       <c r="D23" t="s">
         <v>48</v>
       </c>
-      <c r="E23" s="6" t="s">
+      <c r="E23" s="7" t="s">
         <v>243</v>
       </c>
       <c r="F23" t="s">
@@ -4039,7 +4072,7 @@
       <c r="D24" t="s">
         <v>246</v>
       </c>
-      <c r="E24" s="6" t="s">
+      <c r="E24" s="7" t="s">
         <v>247</v>
       </c>
       <c r="F24" t="s">
@@ -4060,7 +4093,7 @@
       <c r="D25" t="s">
         <v>56</v>
       </c>
-      <c r="E25" s="6" t="s">
+      <c r="E25" s="7" t="s">
         <v>250</v>
       </c>
       <c r="F25" t="s">
@@ -4081,7 +4114,7 @@
       <c r="D26" t="s">
         <v>253</v>
       </c>
-      <c r="E26" s="6" t="s">
+      <c r="E26" s="7" t="s">
         <v>254</v>
       </c>
       <c r="F26" t="s">
@@ -4102,7 +4135,7 @@
       <c r="D27" t="s">
         <v>135</v>
       </c>
-      <c r="E27" s="6" t="s">
+      <c r="E27" s="7" t="s">
         <v>257</v>
       </c>
       <c r="F27" t="s">
@@ -4123,7 +4156,7 @@
       <c r="D28" t="s">
         <v>259</v>
       </c>
-      <c r="E28" s="6" t="s">
+      <c r="E28" s="7" t="s">
         <v>260</v>
       </c>
       <c r="F28" t="s">
@@ -4144,7 +4177,7 @@
       <c r="D29" t="s">
         <v>264</v>
       </c>
-      <c r="E29" s="6" t="s">
+      <c r="E29" s="7" t="s">
         <v>265</v>
       </c>
       <c r="F29" t="s">
@@ -4165,7 +4198,7 @@
       <c r="D30" t="s">
         <v>268</v>
       </c>
-      <c r="E30" s="6" t="s">
+      <c r="E30" s="7" t="s">
         <v>269</v>
       </c>
       <c r="F30" t="s">
@@ -4186,7 +4219,7 @@
       <c r="D31" t="s">
         <v>272</v>
       </c>
-      <c r="E31" s="6" t="s">
+      <c r="E31" s="7" t="s">
         <v>273</v>
       </c>
       <c r="F31" t="s">
@@ -4207,7 +4240,7 @@
       <c r="D32" t="s">
         <v>276</v>
       </c>
-      <c r="E32" s="6" t="s">
+      <c r="E32" s="7" t="s">
         <v>277</v>
       </c>
       <c r="F32" t="s">
@@ -4228,7 +4261,7 @@
       <c r="D33" t="s">
         <v>60</v>
       </c>
-      <c r="E33" s="6" t="s">
+      <c r="E33" s="7" t="s">
         <v>280</v>
       </c>
       <c r="F33" t="s">
@@ -4249,7 +4282,7 @@
       <c r="D34" t="s">
         <v>60</v>
       </c>
-      <c r="E34" s="6" t="s">
+      <c r="E34" s="7" t="s">
         <v>283</v>
       </c>
       <c r="F34" t="s">
@@ -4270,7 +4303,7 @@
       <c r="D35" t="s">
         <v>60</v>
       </c>
-      <c r="E35" s="6" t="s">
+      <c r="E35" s="7" t="s">
         <v>286</v>
       </c>
       <c r="F35" t="s">
@@ -4291,7 +4324,7 @@
       <c r="D36" t="s">
         <v>60</v>
       </c>
-      <c r="E36" s="6" t="s">
+      <c r="E36" s="7" t="s">
         <v>289</v>
       </c>
       <c r="F36" t="s">
@@ -4312,7 +4345,7 @@
       <c r="D37" t="s">
         <v>60</v>
       </c>
-      <c r="E37" s="6" t="s">
+      <c r="E37" s="7" t="s">
         <v>292</v>
       </c>
       <c r="F37" t="s">
@@ -4333,7 +4366,7 @@
       <c r="D38" t="s">
         <v>60</v>
       </c>
-      <c r="E38" s="6" t="s">
+      <c r="E38" s="7" t="s">
         <v>295</v>
       </c>
       <c r="F38" t="s">
@@ -4354,7 +4387,7 @@
       <c r="D39" t="s">
         <v>48</v>
       </c>
-      <c r="E39" s="6" t="s">
+      <c r="E39" s="7" t="s">
         <v>298</v>
       </c>
       <c r="F39" t="s">
@@ -4375,7 +4408,7 @@
       <c r="D40" t="s">
         <v>48</v>
       </c>
-      <c r="E40" s="6" t="s">
+      <c r="E40" s="7" t="s">
         <v>176</v>
       </c>
       <c r="F40" t="s">
@@ -4396,7 +4429,7 @@
       <c r="D41" t="s">
         <v>48</v>
       </c>
-      <c r="E41" s="6" t="s">
+      <c r="E41" s="7" t="s">
         <v>301</v>
       </c>
       <c r="F41" t="s">
@@ -4417,7 +4450,7 @@
       <c r="D42" t="s">
         <v>116</v>
       </c>
-      <c r="E42" s="6" t="s">
+      <c r="E42" s="7" t="s">
         <v>117</v>
       </c>
       <c r="F42" t="s">
@@ -4438,7 +4471,7 @@
       <c r="D43" t="s">
         <v>246</v>
       </c>
-      <c r="E43" s="6" t="s">
+      <c r="E43" s="7" t="s">
         <v>302</v>
       </c>
       <c r="F43" t="s">
@@ -4459,7 +4492,7 @@
       <c r="D44" t="s">
         <v>305</v>
       </c>
-      <c r="E44" s="6" t="s">
+      <c r="E44" s="7" t="s">
         <v>306</v>
       </c>
       <c r="F44" t="s">
@@ -4748,28 +4781,28 @@
   </cols>
   <sheetData>
     <row r="1" customHeight="true" spans="1:9">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="4" t="s">
         <v>307</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
     </row>
     <row r="2" customHeight="true" spans="1:9">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
     </row>
     <row r="3" customHeight="true" spans="1:6">
       <c r="A3" t="s">
@@ -5279,7 +5312,7 @@
         <f t="shared" si="1"/>
         <v>24</v>
       </c>
-      <c r="B27" s="4" t="s">
+      <c r="B27" s="5" t="s">
         <v>353</v>
       </c>
       <c r="C27" t="s">
@@ -5303,7 +5336,7 @@
       <c r="B28" t="s">
         <v>358</v>
       </c>
-      <c r="C28" s="4" t="s">
+      <c r="C28" s="5" t="s">
         <v>359</v>
       </c>
       <c r="D28" t="s">
@@ -5651,14 +5684,15 @@
   <sheetPr/>
   <dimension ref="A1:N45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O4" sqref="O4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.14" defaultRowHeight="24" customHeight="true"/>
   <cols>
     <col min="1" max="1" width="22.5733333333333" customWidth="true"/>
-    <col min="2" max="8" width="13.14" customWidth="true"/>
+    <col min="2" max="2" width="25.7" customWidth="true"/>
+    <col min="3" max="8" width="13.14" customWidth="true"/>
     <col min="9" max="9" width="21.86" customWidth="true"/>
     <col min="10" max="16384" width="13.14" customWidth="true"/>
   </cols>
@@ -5755,81 +5789,141 @@
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
     </row>
+    <row r="16" customHeight="true" spans="1:2">
+      <c r="A16" t="s">
+        <v>412</v>
+      </c>
+      <c r="B16" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="17" customHeight="true" spans="1:8">
+      <c r="A17" t="s">
+        <v>414</v>
+      </c>
+      <c r="B17">
+        <v>338</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+    </row>
+    <row r="18" customHeight="true" spans="1:8">
+      <c r="A18" t="s">
+        <v>416</v>
+      </c>
+      <c r="B18" t="s">
+        <v>417</v>
+      </c>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+    </row>
+    <row r="19" customHeight="true" spans="1:2">
+      <c r="A19" t="s">
+        <v>418</v>
+      </c>
+      <c r="B19" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="20" customHeight="true" spans="1:2">
+      <c r="A20" t="s">
+        <v>420</v>
+      </c>
+      <c r="B20" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="21" customHeight="true" spans="1:2">
+      <c r="A21" t="s">
+        <v>398</v>
+      </c>
+      <c r="B21">
+        <v>289</v>
+      </c>
+    </row>
     <row r="36" customHeight="true" spans="1:12">
       <c r="A36" s="1" t="s">
-        <v>412</v>
-      </c>
-      <c r="B36" s="2"/>
-      <c r="C36" s="2"/>
-      <c r="D36" s="2"/>
-      <c r="E36" s="2"/>
-      <c r="F36" s="2"/>
-      <c r="G36" s="2"/>
-      <c r="H36" s="2"/>
-      <c r="I36" s="2"/>
-      <c r="J36" s="2"/>
-      <c r="K36" s="2"/>
-      <c r="L36" s="2"/>
+        <v>422</v>
+      </c>
+      <c r="B36" s="3"/>
+      <c r="C36" s="3"/>
+      <c r="D36" s="3"/>
+      <c r="E36" s="3"/>
+      <c r="F36" s="3"/>
+      <c r="G36" s="3"/>
+      <c r="H36" s="3"/>
+      <c r="I36" s="3"/>
+      <c r="J36" s="3"/>
+      <c r="K36" s="3"/>
+      <c r="L36" s="3"/>
     </row>
     <row r="37" customHeight="true" spans="1:12">
-      <c r="A37" s="2"/>
-      <c r="B37" s="2"/>
-      <c r="C37" s="2"/>
-      <c r="D37" s="2"/>
-      <c r="E37" s="2"/>
-      <c r="F37" s="2"/>
-      <c r="G37" s="2"/>
-      <c r="H37" s="2"/>
-      <c r="I37" s="2"/>
-      <c r="J37" s="2"/>
-      <c r="K37" s="2"/>
-      <c r="L37" s="2"/>
+      <c r="A37" s="3"/>
+      <c r="B37" s="3"/>
+      <c r="C37" s="3"/>
+      <c r="D37" s="3"/>
+      <c r="E37" s="3"/>
+      <c r="F37" s="3"/>
+      <c r="G37" s="3"/>
+      <c r="H37" s="3"/>
+      <c r="I37" s="3"/>
+      <c r="J37" s="3"/>
+      <c r="K37" s="3"/>
+      <c r="L37" s="3"/>
     </row>
     <row r="38" customHeight="true" spans="1:12">
-      <c r="A38" s="2"/>
-      <c r="B38" s="2"/>
-      <c r="C38" s="2"/>
-      <c r="D38" s="2"/>
-      <c r="E38" s="2"/>
-      <c r="F38" s="2"/>
-      <c r="G38" s="2"/>
-      <c r="H38" s="2"/>
-      <c r="I38" s="2"/>
-      <c r="J38" s="2"/>
-      <c r="K38" s="2"/>
-      <c r="L38" s="2"/>
+      <c r="A38" s="3"/>
+      <c r="B38" s="3"/>
+      <c r="C38" s="3"/>
+      <c r="D38" s="3"/>
+      <c r="E38" s="3"/>
+      <c r="F38" s="3"/>
+      <c r="G38" s="3"/>
+      <c r="H38" s="3"/>
+      <c r="I38" s="3"/>
+      <c r="J38" s="3"/>
+      <c r="K38" s="3"/>
+      <c r="L38" s="3"/>
     </row>
     <row r="39" customHeight="true" spans="1:12">
-      <c r="A39" s="2"/>
-      <c r="B39" s="2"/>
-      <c r="C39" s="2"/>
-      <c r="D39" s="2"/>
-      <c r="E39" s="2"/>
-      <c r="F39" s="2"/>
-      <c r="G39" s="2"/>
-      <c r="H39" s="2"/>
-      <c r="I39" s="2"/>
-      <c r="J39" s="2"/>
-      <c r="K39" s="2"/>
-      <c r="L39" s="2"/>
+      <c r="A39" s="3"/>
+      <c r="B39" s="3"/>
+      <c r="C39" s="3"/>
+      <c r="D39" s="3"/>
+      <c r="E39" s="3"/>
+      <c r="F39" s="3"/>
+      <c r="G39" s="3"/>
+      <c r="H39" s="3"/>
+      <c r="I39" s="3"/>
+      <c r="J39" s="3"/>
+      <c r="K39" s="3"/>
+      <c r="L39" s="3"/>
     </row>
     <row r="40" customHeight="true" spans="1:12">
-      <c r="A40" s="2"/>
-      <c r="B40" s="2"/>
-      <c r="C40" s="2"/>
-      <c r="D40" s="2"/>
-      <c r="E40" s="2"/>
-      <c r="F40" s="2"/>
-      <c r="G40" s="2"/>
-      <c r="H40" s="2"/>
-      <c r="I40" s="2"/>
-      <c r="J40" s="2"/>
-      <c r="K40" s="2"/>
-      <c r="L40" s="2"/>
+      <c r="A40" s="3"/>
+      <c r="B40" s="3"/>
+      <c r="C40" s="3"/>
+      <c r="D40" s="3"/>
+      <c r="E40" s="3"/>
+      <c r="F40" s="3"/>
+      <c r="G40" s="3"/>
+      <c r="H40" s="3"/>
+      <c r="I40" s="3"/>
+      <c r="J40" s="3"/>
+      <c r="K40" s="3"/>
+      <c r="L40" s="3"/>
     </row>
     <row r="42" customHeight="true" spans="1:11">
       <c r="A42" s="1" t="s">
-        <v>413</v>
+        <v>423</v>
       </c>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
@@ -5882,11 +5976,12 @@
       <c r="K45" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="D13:H14"/>
     <mergeCell ref="A42:K45"/>
     <mergeCell ref="A36:L40"/>
+    <mergeCell ref="D17:H18"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/ReadandFitness/Read_record.xlsx
+++ b/ReadandFitness/Read_record.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17850" activeTab="3"/>
+    <workbookView windowHeight="17850"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="677" uniqueCount="424">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="681" uniqueCount="426">
   <si>
     <t>阅读记录</t>
   </si>
@@ -562,9 +562,6 @@
     <t>9787543071872</t>
   </si>
   <si>
-    <t>2020.12.21</t>
-  </si>
-  <si>
     <t>时间地图：大历史，130亿年前至今</t>
   </si>
   <si>
@@ -596,6 +593,15 @@
   </si>
   <si>
     <t>2020.6.3</t>
+  </si>
+  <si>
+    <t>中华书局</t>
+  </si>
+  <si>
+    <t>9787101101621</t>
+  </si>
+  <si>
+    <t>2021.1.24</t>
   </si>
   <si>
     <t>藏书目录</t>
@@ -1305,10 +1311,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -1335,9 +1341,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1352,6 +1366,14 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1372,32 +1394,31 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1411,54 +1432,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1472,10 +1455,33 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1488,31 +1494,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1530,7 +1560,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1542,7 +1578,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1554,13 +1590,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1572,31 +1650,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1608,67 +1668,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1686,7 +1692,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1710,7 +1716,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1741,30 +1762,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1779,162 +1776,168 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="7" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="2" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="2" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="2" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="8" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="7" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
@@ -2502,8 +2505,8 @@
   <sheetPr/>
   <dimension ref="A1:I52"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="G46" sqref="G46"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="F41" sqref="F41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14" defaultRowHeight="25" customHeight="true"/>
@@ -2519,28 +2522,28 @@
   </cols>
   <sheetData>
     <row r="1" customHeight="true" spans="1:9">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
     </row>
     <row r="2" customHeight="true" spans="1:9">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
     </row>
     <row r="3" customHeight="true" spans="1:8">
       <c r="A3" t="s">
@@ -2582,13 +2585,13 @@
       <c r="D4" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E4" s="6" t="s">
         <v>12</v>
       </c>
       <c r="F4" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="G4" s="2" t="s">
         <v>14</v>
       </c>
       <c r="H4" t="s">
@@ -2609,13 +2612,13 @@
       <c r="D5" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="E5" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F5" t="s">
         <v>18</v>
       </c>
-      <c r="G5" s="3"/>
+      <c r="G5" s="2"/>
       <c r="H5" t="s">
         <v>19</v>
       </c>
@@ -2631,7 +2634,7 @@
       <c r="C6" t="s">
         <v>21</v>
       </c>
-      <c r="G6" s="3"/>
+      <c r="G6" s="2"/>
       <c r="H6" t="s">
         <v>22</v>
       </c>
@@ -2656,7 +2659,7 @@
       <c r="F7" t="s">
         <v>27</v>
       </c>
-      <c r="G7" s="3"/>
+      <c r="G7" s="2"/>
       <c r="H7" s="1" t="s">
         <v>28</v>
       </c>
@@ -2681,7 +2684,7 @@
       <c r="F8" t="s">
         <v>32</v>
       </c>
-      <c r="G8" s="3"/>
+      <c r="G8" s="2"/>
       <c r="H8" s="1"/>
     </row>
     <row r="9" customHeight="true" spans="1:8">
@@ -2704,7 +2707,7 @@
       <c r="F9" t="s">
         <v>36</v>
       </c>
-      <c r="G9" s="3"/>
+      <c r="G9" s="2"/>
       <c r="H9" s="1"/>
     </row>
     <row r="10" customHeight="true" spans="1:8">
@@ -2718,7 +2721,7 @@
       <c r="C10" t="s">
         <v>38</v>
       </c>
-      <c r="G10" s="3"/>
+      <c r="G10" s="2"/>
       <c r="H10" s="1"/>
     </row>
     <row r="11" customHeight="true" spans="1:8">
@@ -2732,7 +2735,7 @@
       <c r="C11" t="s">
         <v>40</v>
       </c>
-      <c r="G11" s="3"/>
+      <c r="G11" s="2"/>
       <c r="H11" s="1"/>
     </row>
     <row r="12" customHeight="true" spans="1:8">
@@ -2755,7 +2758,7 @@
       <c r="F12" t="s">
         <v>45</v>
       </c>
-      <c r="G12" s="3"/>
+      <c r="G12" s="2"/>
       <c r="H12" s="1"/>
     </row>
     <row r="13" customHeight="true" spans="1:8">
@@ -2778,7 +2781,7 @@
       <c r="F13" t="s">
         <v>45</v>
       </c>
-      <c r="G13" s="3"/>
+      <c r="G13" s="2"/>
       <c r="H13" s="1"/>
     </row>
     <row r="14" customHeight="true" spans="1:8">
@@ -2801,7 +2804,7 @@
       <c r="F14" t="s">
         <v>45</v>
       </c>
-      <c r="G14" s="3"/>
+      <c r="G14" s="2"/>
       <c r="H14" s="1"/>
     </row>
     <row r="15" customHeight="true" spans="1:8">
@@ -2824,7 +2827,7 @@
       <c r="F15" t="s">
         <v>45</v>
       </c>
-      <c r="G15" s="3"/>
+      <c r="G15" s="2"/>
       <c r="H15" s="1"/>
     </row>
     <row r="16" customHeight="true" spans="1:8">
@@ -2847,7 +2850,7 @@
       <c r="F16" t="s">
         <v>62</v>
       </c>
-      <c r="G16" s="3"/>
+      <c r="G16" s="2"/>
       <c r="H16" s="1"/>
     </row>
     <row r="17" customHeight="true" spans="1:8">
@@ -2870,7 +2873,7 @@
       <c r="F17" t="s">
         <v>67</v>
       </c>
-      <c r="G17" s="3"/>
+      <c r="G17" s="2"/>
       <c r="H17" s="1"/>
     </row>
     <row r="18" customHeight="true" spans="1:8">
@@ -2887,10 +2890,10 @@
       <c r="D18" t="s">
         <v>70</v>
       </c>
-      <c r="E18" s="7" t="s">
+      <c r="E18" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="G18" s="3"/>
+      <c r="G18" s="2"/>
       <c r="H18" t="s">
         <v>72</v>
       </c>
@@ -2909,13 +2912,13 @@
       <c r="D19" t="s">
         <v>56</v>
       </c>
-      <c r="E19" s="7" t="s">
+      <c r="E19" s="6" t="s">
         <v>75</v>
       </c>
       <c r="F19" t="s">
         <v>76</v>
       </c>
-      <c r="G19" s="3"/>
+      <c r="G19" s="2"/>
       <c r="H19" t="s">
         <v>77</v>
       </c>
@@ -2934,13 +2937,13 @@
       <c r="D20" t="s">
         <v>43</v>
       </c>
-      <c r="E20" s="7" t="s">
+      <c r="E20" s="6" t="s">
         <v>80</v>
       </c>
       <c r="F20" t="s">
         <v>76</v>
       </c>
-      <c r="G20" s="3"/>
+      <c r="G20" s="2"/>
       <c r="H20" t="s">
         <v>81</v>
       </c>
@@ -2986,7 +2989,7 @@
       <c r="D22" t="s">
         <v>90</v>
       </c>
-      <c r="E22" s="7" t="s">
+      <c r="E22" s="6" t="s">
         <v>91</v>
       </c>
       <c r="F22" t="s">
@@ -3094,7 +3097,7 @@
       <c r="D26" t="s">
         <v>110</v>
       </c>
-      <c r="E26" s="7" t="s">
+      <c r="E26" s="6" t="s">
         <v>111</v>
       </c>
       <c r="G26" t="s">
@@ -3118,7 +3121,7 @@
       <c r="D27" t="s">
         <v>116</v>
       </c>
-      <c r="E27" s="7" t="s">
+      <c r="E27" s="6" t="s">
         <v>117</v>
       </c>
       <c r="F27" t="s">
@@ -3145,7 +3148,7 @@
       <c r="D28" t="s">
         <v>122</v>
       </c>
-      <c r="E28" s="7" t="s">
+      <c r="E28" s="6" t="s">
         <v>123</v>
       </c>
       <c r="G28" t="s">
@@ -3217,7 +3220,7 @@
       <c r="D31" t="s">
         <v>135</v>
       </c>
-      <c r="E31" s="7" t="s">
+      <c r="E31" s="6" t="s">
         <v>136</v>
       </c>
       <c r="F31" t="s">
@@ -3244,7 +3247,7 @@
       <c r="D32" t="s">
         <v>43</v>
       </c>
-      <c r="E32" s="7" t="s">
+      <c r="E32" s="6" t="s">
         <v>141</v>
       </c>
       <c r="F32" t="s">
@@ -3271,7 +3274,7 @@
       <c r="D33" t="s">
         <v>56</v>
       </c>
-      <c r="E33" s="7" t="s">
+      <c r="E33" s="6" t="s">
         <v>146</v>
       </c>
       <c r="G33" t="s">
@@ -3295,7 +3298,7 @@
       <c r="D34" t="s">
         <v>25</v>
       </c>
-      <c r="E34" s="7" t="s">
+      <c r="E34" s="6" t="s">
         <v>151</v>
       </c>
       <c r="G34" t="s">
@@ -3319,7 +3322,7 @@
       <c r="D35" t="s">
         <v>135</v>
       </c>
-      <c r="E35" s="7" t="s">
+      <c r="E35" s="6" t="s">
         <v>155</v>
       </c>
       <c r="G35" t="s">
@@ -3343,7 +3346,7 @@
       <c r="D36" t="s">
         <v>160</v>
       </c>
-      <c r="E36" s="7" t="s">
+      <c r="E36" s="6" t="s">
         <v>161</v>
       </c>
       <c r="G36" t="s">
@@ -3367,7 +3370,7 @@
       <c r="D37" t="s">
         <v>43</v>
       </c>
-      <c r="E37" s="7" t="s">
+      <c r="E37" s="6" t="s">
         <v>165</v>
       </c>
       <c r="G37" t="s">
@@ -3388,7 +3391,7 @@
       <c r="D38" t="s">
         <v>135</v>
       </c>
-      <c r="E38" s="7" t="s">
+      <c r="E38" s="6" t="s">
         <v>168</v>
       </c>
       <c r="G38" t="s">
@@ -3409,7 +3412,7 @@
       <c r="D39" t="s">
         <v>52</v>
       </c>
-      <c r="E39" s="7" t="s">
+      <c r="E39" s="6" t="s">
         <v>171</v>
       </c>
       <c r="G39" t="s">
@@ -3433,7 +3436,7 @@
       <c r="D40" t="s">
         <v>48</v>
       </c>
-      <c r="E40" s="7" t="s">
+      <c r="E40" s="6" t="s">
         <v>176</v>
       </c>
       <c r="F40" t="s">
@@ -3446,7 +3449,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="41" customHeight="true" spans="1:7">
+    <row r="41" customHeight="true" spans="1:5">
       <c r="A41">
         <f t="shared" si="4"/>
         <v>38</v>
@@ -3460,11 +3463,8 @@
       <c r="D41" t="s">
         <v>70</v>
       </c>
-      <c r="E41" s="7" t="s">
+      <c r="E41" s="6" t="s">
         <v>180</v>
-      </c>
-      <c r="G41" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="42" customHeight="true" spans="1:5">
@@ -3473,16 +3473,16 @@
         <v>39</v>
       </c>
       <c r="B42" t="s">
+        <v>181</v>
+      </c>
+      <c r="C42" t="s">
         <v>182</v>
-      </c>
-      <c r="C42" t="s">
-        <v>183</v>
       </c>
       <c r="D42" t="s">
         <v>48</v>
       </c>
-      <c r="E42" s="7" t="s">
-        <v>184</v>
+      <c r="E42" s="6" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="43" customHeight="true" spans="1:5">
@@ -3491,16 +3491,16 @@
         <v>40</v>
       </c>
       <c r="B43" t="s">
+        <v>184</v>
+      </c>
+      <c r="C43" t="s">
         <v>185</v>
-      </c>
-      <c r="C43" t="s">
-        <v>186</v>
       </c>
       <c r="D43" t="s">
         <v>56</v>
       </c>
-      <c r="E43" s="7" t="s">
-        <v>187</v>
+      <c r="E43" s="6" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="44" customHeight="true" spans="1:6">
@@ -3509,25 +3509,40 @@
         <v>41</v>
       </c>
       <c r="B44" t="s">
+        <v>187</v>
+      </c>
+      <c r="C44" t="s">
         <v>188</v>
       </c>
-      <c r="C44" t="s">
+      <c r="D44" t="s">
         <v>189</v>
       </c>
-      <c r="D44" t="s">
+      <c r="E44" t="s">
         <v>190</v>
       </c>
-      <c r="E44" t="s">
+      <c r="F44" t="s">
         <v>191</v>
       </c>
-      <c r="F44" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="45" customHeight="true" spans="1:1">
+    </row>
+    <row r="45" customHeight="true" spans="1:7">
       <c r="A45">
         <f t="shared" si="4"/>
         <v>42</v>
+      </c>
+      <c r="B45" t="s">
+        <v>9</v>
+      </c>
+      <c r="C45" t="s">
+        <v>10</v>
+      </c>
+      <c r="D45" t="s">
+        <v>192</v>
+      </c>
+      <c r="E45" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="G45" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="46" customHeight="true" spans="1:1">
@@ -3604,28 +3619,28 @@
   </cols>
   <sheetData>
     <row r="1" customHeight="true" spans="1:9">
-      <c r="A1" s="6" t="s">
-        <v>193</v>
-      </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
+      <c r="A1" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
     </row>
     <row r="2" customHeight="true" spans="1:9">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
     </row>
     <row r="3" customHeight="true" spans="1:6">
       <c r="A3" t="s">
@@ -3641,7 +3656,7 @@
         <v>4</v>
       </c>
       <c r="E3" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="F3" t="s">
         <v>6</v>
@@ -3661,7 +3676,7 @@
       <c r="D4" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E4" s="6" t="s">
         <v>12</v>
       </c>
       <c r="F4" t="s">
@@ -3682,7 +3697,7 @@
       <c r="D5" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="E5" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F5" t="s">
@@ -3695,10 +3710,10 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="F6" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
     </row>
     <row r="7" customHeight="true" spans="1:6">
@@ -3707,16 +3722,16 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="C7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="D7" t="s">
-        <v>199</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>202</v>
       </c>
       <c r="F7" t="s">
         <v>45</v>
@@ -3728,16 +3743,16 @@
         <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="C8" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="D8" t="s">
-        <v>203</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>206</v>
       </c>
       <c r="F8" t="s">
         <v>45</v>
@@ -3749,16 +3764,16 @@
         <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="C9" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D9" t="s">
-        <v>207</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>208</v>
+        <v>209</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>210</v>
       </c>
       <c r="F9" t="s">
         <v>45</v>
@@ -3770,16 +3785,16 @@
         <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="C10" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="D10" t="s">
-        <v>211</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>212</v>
+        <v>213</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>214</v>
       </c>
       <c r="F10" t="s">
         <v>45</v>
@@ -3791,16 +3806,16 @@
         <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="C11" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="D11" t="s">
-        <v>203</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>215</v>
+        <v>205</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>217</v>
       </c>
       <c r="F11" t="s">
         <v>45</v>
@@ -3812,16 +3827,16 @@
         <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="C12" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="D12" t="s">
         <v>48</v>
       </c>
-      <c r="E12" s="7" t="s">
-        <v>218</v>
+      <c r="E12" s="6" t="s">
+        <v>220</v>
       </c>
       <c r="F12" t="s">
         <v>45</v>
@@ -3833,16 +3848,16 @@
         <v>10</v>
       </c>
       <c r="B13" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="C13" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="D13" t="s">
         <v>48</v>
       </c>
-      <c r="E13" s="7" t="s">
-        <v>221</v>
+      <c r="E13" s="6" t="s">
+        <v>223</v>
       </c>
       <c r="F13" t="s">
         <v>45</v>
@@ -3854,16 +3869,16 @@
         <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="C14" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="D14" t="s">
         <v>48</v>
       </c>
-      <c r="E14" s="7" t="s">
-        <v>224</v>
+      <c r="E14" s="6" t="s">
+        <v>226</v>
       </c>
       <c r="F14" t="s">
         <v>45</v>
@@ -3875,16 +3890,16 @@
         <v>12</v>
       </c>
       <c r="B15" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="C15" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="D15" t="s">
-        <v>227</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>228</v>
+        <v>229</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>230</v>
       </c>
       <c r="F15" t="s">
         <v>45</v>
@@ -3896,16 +3911,16 @@
         <v>13</v>
       </c>
       <c r="B16" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="C16" t="s">
         <v>179</v>
       </c>
       <c r="D16" t="s">
-        <v>211</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>230</v>
+        <v>213</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>232</v>
       </c>
       <c r="F16" t="s">
         <v>45</v>
@@ -3917,16 +3932,16 @@
         <v>14</v>
       </c>
       <c r="B17" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="C17" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="D17" t="s">
-        <v>233</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>234</v>
+        <v>235</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>236</v>
       </c>
       <c r="F17" t="s">
         <v>45</v>
@@ -3938,16 +3953,16 @@
         <v>15</v>
       </c>
       <c r="B18" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="C18" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D18" t="s">
-        <v>207</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>236</v>
+        <v>209</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>238</v>
       </c>
       <c r="F18" t="s">
         <v>45</v>
@@ -3959,16 +3974,16 @@
         <v>16</v>
       </c>
       <c r="B19" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="C19" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="D19" t="s">
-        <v>239</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>242</v>
       </c>
       <c r="F19" t="s">
         <v>45</v>
@@ -3988,7 +4003,7 @@
       <c r="D20" t="s">
         <v>56</v>
       </c>
-      <c r="E20" s="7" t="s">
+      <c r="E20" s="6" t="s">
         <v>75</v>
       </c>
       <c r="F20" t="s">
@@ -4009,7 +4024,7 @@
       <c r="D21" t="s">
         <v>43</v>
       </c>
-      <c r="E21" s="7" t="s">
+      <c r="E21" s="6" t="s">
         <v>80</v>
       </c>
       <c r="F21" t="s">
@@ -4030,7 +4045,7 @@
       <c r="D22" t="s">
         <v>90</v>
       </c>
-      <c r="E22" s="7" t="s">
+      <c r="E22" s="6" t="s">
         <v>91</v>
       </c>
       <c r="F22" t="s">
@@ -4043,16 +4058,16 @@
         <v>20</v>
       </c>
       <c r="B23" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="C23" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="D23" t="s">
         <v>48</v>
       </c>
-      <c r="E23" s="7" t="s">
-        <v>243</v>
+      <c r="E23" s="6" t="s">
+        <v>245</v>
       </c>
       <c r="F23" t="s">
         <v>86</v>
@@ -4064,16 +4079,16 @@
         <v>21</v>
       </c>
       <c r="B24" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="C24" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="D24" t="s">
-        <v>246</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>247</v>
+        <v>248</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>249</v>
       </c>
       <c r="F24" t="s">
         <v>86</v>
@@ -4085,16 +4100,16 @@
         <v>22</v>
       </c>
       <c r="B25" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="C25" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="D25" t="s">
         <v>56</v>
       </c>
-      <c r="E25" s="7" t="s">
-        <v>250</v>
+      <c r="E25" s="6" t="s">
+        <v>252</v>
       </c>
       <c r="F25" t="s">
         <v>86</v>
@@ -4106,16 +4121,16 @@
         <v>23</v>
       </c>
       <c r="B26" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="C26" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="D26" t="s">
-        <v>253</v>
-      </c>
-      <c r="E26" s="7" t="s">
-        <v>254</v>
+        <v>255</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>256</v>
       </c>
       <c r="F26" t="s">
         <v>86</v>
@@ -4127,16 +4142,16 @@
         <v>24</v>
       </c>
       <c r="B27" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="C27" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="D27" t="s">
         <v>135</v>
       </c>
-      <c r="E27" s="7" t="s">
-        <v>257</v>
+      <c r="E27" s="6" t="s">
+        <v>259</v>
       </c>
       <c r="F27" t="s">
         <v>86</v>
@@ -4151,16 +4166,16 @@
         <v>68</v>
       </c>
       <c r="C28" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="D28" t="s">
-        <v>259</v>
-      </c>
-      <c r="E28" s="7" t="s">
-        <v>260</v>
+        <v>261</v>
+      </c>
+      <c r="E28" s="6" t="s">
+        <v>262</v>
       </c>
       <c r="F28" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
     </row>
     <row r="29" customHeight="true" spans="1:6">
@@ -4169,19 +4184,19 @@
         <v>26</v>
       </c>
       <c r="B29" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="C29" t="s">
+        <v>265</v>
+      </c>
+      <c r="D29" t="s">
+        <v>266</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>267</v>
+      </c>
+      <c r="F29" t="s">
         <v>263</v>
-      </c>
-      <c r="D29" t="s">
-        <v>264</v>
-      </c>
-      <c r="E29" s="7" t="s">
-        <v>265</v>
-      </c>
-      <c r="F29" t="s">
-        <v>261</v>
       </c>
     </row>
     <row r="30" customHeight="true" spans="1:6">
@@ -4190,19 +4205,19 @@
         <v>27</v>
       </c>
       <c r="B30" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="C30" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="D30" t="s">
-        <v>268</v>
-      </c>
-      <c r="E30" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
+      </c>
+      <c r="E30" s="6" t="s">
+        <v>271</v>
       </c>
       <c r="F30" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
     </row>
     <row r="31" customHeight="true" spans="1:6">
@@ -4211,19 +4226,19 @@
         <v>28</v>
       </c>
       <c r="B31" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="C31" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="D31" t="s">
-        <v>272</v>
-      </c>
-      <c r="E31" s="7" t="s">
-        <v>273</v>
+        <v>274</v>
+      </c>
+      <c r="E31" s="6" t="s">
+        <v>275</v>
       </c>
       <c r="F31" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
     </row>
     <row r="32" customHeight="true" spans="1:6">
@@ -4232,19 +4247,19 @@
         <v>29</v>
       </c>
       <c r="B32" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="C32" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="D32" t="s">
-        <v>276</v>
-      </c>
-      <c r="E32" s="7" t="s">
-        <v>277</v>
+        <v>278</v>
+      </c>
+      <c r="E32" s="6" t="s">
+        <v>279</v>
       </c>
       <c r="F32" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
     </row>
     <row r="33" customHeight="true" spans="1:6">
@@ -4253,19 +4268,19 @@
         <v>30</v>
       </c>
       <c r="B33" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="C33" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="D33" t="s">
         <v>60</v>
       </c>
-      <c r="E33" s="7" t="s">
-        <v>280</v>
+      <c r="E33" s="6" t="s">
+        <v>282</v>
       </c>
       <c r="F33" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
     </row>
     <row r="34" customHeight="true" spans="1:6">
@@ -4274,19 +4289,19 @@
         <v>31</v>
       </c>
       <c r="B34" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="C34" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="D34" t="s">
         <v>60</v>
       </c>
-      <c r="E34" s="7" t="s">
-        <v>283</v>
+      <c r="E34" s="6" t="s">
+        <v>285</v>
       </c>
       <c r="F34" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
     </row>
     <row r="35" customHeight="true" spans="1:6">
@@ -4295,19 +4310,19 @@
         <v>32</v>
       </c>
       <c r="B35" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="C35" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="D35" t="s">
         <v>60</v>
       </c>
-      <c r="E35" s="7" t="s">
-        <v>286</v>
+      <c r="E35" s="6" t="s">
+        <v>288</v>
       </c>
       <c r="F35" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
     </row>
     <row r="36" customHeight="true" spans="1:6">
@@ -4316,19 +4331,19 @@
         <v>33</v>
       </c>
       <c r="B36" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="C36" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="D36" t="s">
         <v>60</v>
       </c>
-      <c r="E36" s="7" t="s">
-        <v>289</v>
+      <c r="E36" s="6" t="s">
+        <v>291</v>
       </c>
       <c r="F36" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
     </row>
     <row r="37" customHeight="true" spans="1:6">
@@ -4337,19 +4352,19 @@
         <v>34</v>
       </c>
       <c r="B37" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="C37" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="D37" t="s">
         <v>60</v>
       </c>
-      <c r="E37" s="7" t="s">
-        <v>292</v>
+      <c r="E37" s="6" t="s">
+        <v>294</v>
       </c>
       <c r="F37" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
     </row>
     <row r="38" customHeight="true" spans="1:6">
@@ -4358,19 +4373,19 @@
         <v>35</v>
       </c>
       <c r="B38" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="C38" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="D38" t="s">
         <v>60</v>
       </c>
-      <c r="E38" s="7" t="s">
-        <v>295</v>
+      <c r="E38" s="6" t="s">
+        <v>297</v>
       </c>
       <c r="F38" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
     </row>
     <row r="39" customHeight="true" spans="1:6">
@@ -4379,16 +4394,16 @@
         <v>36</v>
       </c>
       <c r="B39" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="C39" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="D39" t="s">
         <v>48</v>
       </c>
-      <c r="E39" s="7" t="s">
-        <v>298</v>
+      <c r="E39" s="6" t="s">
+        <v>300</v>
       </c>
       <c r="F39" t="s">
         <v>101</v>
@@ -4408,7 +4423,7 @@
       <c r="D40" t="s">
         <v>48</v>
       </c>
-      <c r="E40" s="7" t="s">
+      <c r="E40" s="6" t="s">
         <v>176</v>
       </c>
       <c r="F40" t="s">
@@ -4421,16 +4436,16 @@
         <v>38</v>
       </c>
       <c r="B41" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="C41" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="D41" t="s">
         <v>48</v>
       </c>
-      <c r="E41" s="7" t="s">
-        <v>301</v>
+      <c r="E41" s="6" t="s">
+        <v>303</v>
       </c>
       <c r="F41" t="s">
         <v>101</v>
@@ -4450,7 +4465,7 @@
       <c r="D42" t="s">
         <v>116</v>
       </c>
-      <c r="E42" s="7" t="s">
+      <c r="E42" s="6" t="s">
         <v>117</v>
       </c>
       <c r="F42" t="s">
@@ -4463,16 +4478,16 @@
         <v>40</v>
       </c>
       <c r="B43" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="C43" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="D43" t="s">
-        <v>246</v>
-      </c>
-      <c r="E43" s="7" t="s">
-        <v>302</v>
+        <v>248</v>
+      </c>
+      <c r="E43" s="6" t="s">
+        <v>304</v>
       </c>
       <c r="F43" t="s">
         <v>118</v>
@@ -4484,16 +4499,16 @@
         <v>41</v>
       </c>
       <c r="B44" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="C44" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="D44" t="s">
-        <v>305</v>
-      </c>
-      <c r="E44" s="7" t="s">
-        <v>306</v>
+        <v>307</v>
+      </c>
+      <c r="E44" s="6" t="s">
+        <v>308</v>
       </c>
       <c r="F44" t="s">
         <v>118</v>
@@ -4781,28 +4796,28 @@
   </cols>
   <sheetData>
     <row r="1" customHeight="true" spans="1:9">
-      <c r="A1" s="4" t="s">
-        <v>307</v>
-      </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
+      <c r="A1" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
     </row>
     <row r="2" customHeight="true" spans="1:9">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
     </row>
     <row r="3" customHeight="true" spans="1:6">
       <c r="A3" t="s">
@@ -4839,7 +4854,7 @@
         <v>25</v>
       </c>
       <c r="E4" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="F4" t="s">
         <v>27</v>
@@ -4860,7 +4875,7 @@
         <v>25</v>
       </c>
       <c r="E5" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="F5" t="s">
         <v>32</v>
@@ -4881,7 +4896,7 @@
         <v>25</v>
       </c>
       <c r="E6" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="F6" t="s">
         <v>36</v>
@@ -4893,19 +4908,19 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="C7" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="D7" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="E7" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="F7" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
     </row>
     <row r="8" customHeight="true" spans="1:6">
@@ -4914,19 +4929,19 @@
         <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="C8" t="s">
+        <v>318</v>
+      </c>
+      <c r="D8" t="s">
+        <v>319</v>
+      </c>
+      <c r="E8" t="s">
+        <v>320</v>
+      </c>
+      <c r="F8" t="s">
         <v>316</v>
-      </c>
-      <c r="D8" t="s">
-        <v>317</v>
-      </c>
-      <c r="E8" t="s">
-        <v>318</v>
-      </c>
-      <c r="F8" t="s">
-        <v>314</v>
       </c>
     </row>
     <row r="9" customHeight="true" spans="1:6">
@@ -4935,19 +4950,19 @@
         <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="C9" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="D9" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="E9" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="F9" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
     </row>
     <row r="10" customHeight="true" spans="1:6">
@@ -4986,7 +5001,7 @@
         <v>48</v>
       </c>
       <c r="E11" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="F11" t="s">
         <v>45</v>
@@ -5028,7 +5043,7 @@
         <v>43</v>
       </c>
       <c r="E13" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="F13" t="s">
         <v>45</v>
@@ -5040,16 +5055,16 @@
         <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="C14" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="D14" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="E14" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="F14" t="s">
         <v>45</v>
@@ -5085,13 +5100,13 @@
         <v>78</v>
       </c>
       <c r="C16" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="D16" t="s">
         <v>43</v>
       </c>
       <c r="E16" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="F16" t="s">
         <v>62</v>
@@ -5124,16 +5139,16 @@
         <v>15</v>
       </c>
       <c r="B18" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="C18" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="D18" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="E18" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="F18" t="s">
         <v>67</v>
@@ -5166,19 +5181,19 @@
         <v>17</v>
       </c>
       <c r="B20" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="C20" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="D20" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="E20" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="F20" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
     </row>
     <row r="21" customHeight="true" spans="1:6">
@@ -5187,19 +5202,19 @@
         <v>18</v>
       </c>
       <c r="B21" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="C21" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="D21" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="E21" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="F21" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="22" customHeight="true" spans="1:6">
@@ -5208,19 +5223,19 @@
         <v>19</v>
       </c>
       <c r="B22" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="C22" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="D22" t="s">
         <v>48</v>
       </c>
       <c r="E22" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="F22" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="23" customHeight="true" spans="1:6">
@@ -5229,19 +5244,19 @@
         <v>20</v>
       </c>
       <c r="B23" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="C23" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="D23" t="s">
         <v>56</v>
       </c>
       <c r="E23" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="F23" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="24" customHeight="true" spans="1:6">
@@ -5250,19 +5265,19 @@
         <v>21</v>
       </c>
       <c r="B24" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="C24" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="D24" t="s">
         <v>43</v>
       </c>
       <c r="E24" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="F24" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="25" customHeight="true" spans="1:6">
@@ -5271,19 +5286,19 @@
         <v>22</v>
       </c>
       <c r="B25" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="C25" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="D25" t="s">
         <v>25</v>
       </c>
       <c r="E25" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="F25" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="26" customHeight="true" spans="1:6">
@@ -5292,19 +5307,19 @@
         <v>23</v>
       </c>
       <c r="B26" t="s">
+        <v>187</v>
+      </c>
+      <c r="C26" t="s">
         <v>188</v>
       </c>
-      <c r="C26" t="s">
+      <c r="D26" t="s">
         <v>189</v>
       </c>
-      <c r="D26" t="s">
+      <c r="E26" t="s">
         <v>190</v>
       </c>
-      <c r="E26" t="s">
+      <c r="F26" t="s">
         <v>191</v>
-      </c>
-      <c r="F26" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="27" customHeight="true" spans="1:6">
@@ -5312,20 +5327,20 @@
         <f t="shared" si="1"/>
         <v>24</v>
       </c>
-      <c r="B27" s="5" t="s">
-        <v>353</v>
+      <c r="B27" s="4" t="s">
+        <v>355</v>
       </c>
       <c r="C27" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="D27" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="E27" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="F27" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
     </row>
     <row r="28" customHeight="true" spans="1:6">
@@ -5334,19 +5349,19 @@
         <v>25</v>
       </c>
       <c r="B28" t="s">
-        <v>358</v>
-      </c>
-      <c r="C28" s="5" t="s">
-        <v>359</v>
+        <v>360</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>361</v>
       </c>
       <c r="D28" t="s">
         <v>105</v>
       </c>
       <c r="E28" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="F28" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
     </row>
     <row r="29" customHeight="true" spans="1:6">
@@ -5355,19 +5370,19 @@
         <v>26</v>
       </c>
       <c r="B29" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="C29" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="D29" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E29" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="F29" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
     </row>
     <row r="30" customHeight="true" spans="1:6">
@@ -5376,19 +5391,19 @@
         <v>27</v>
       </c>
       <c r="B30" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="C30" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="D30" t="s">
         <v>48</v>
       </c>
       <c r="E30" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="F30" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
     </row>
     <row r="31" customHeight="true" spans="1:6">
@@ -5397,19 +5412,19 @@
         <v>28</v>
       </c>
       <c r="B31" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="C31" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="D31" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="E31" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="F31" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
     </row>
     <row r="32" customHeight="true" spans="1:6">
@@ -5418,19 +5433,19 @@
         <v>29</v>
       </c>
       <c r="B32" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="C32" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="D32" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="E32" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="F32" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
     </row>
     <row r="33" customHeight="true" spans="1:6">
@@ -5448,7 +5463,7 @@
         <v>48</v>
       </c>
       <c r="E33" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="F33" t="s">
         <v>86</v>
@@ -5469,7 +5484,7 @@
         <v>105</v>
       </c>
       <c r="E34" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="F34" t="s">
         <v>86</v>
@@ -5481,16 +5496,16 @@
         <v>32</v>
       </c>
       <c r="B35" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="C35" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="D35" t="s">
         <v>48</v>
       </c>
       <c r="E35" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="F35" t="s">
         <v>86</v>
@@ -5502,16 +5517,16 @@
         <v>33</v>
       </c>
       <c r="B36" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="C36" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="D36" t="s">
         <v>160</v>
       </c>
       <c r="E36" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="F36" t="s">
         <v>86</v>
@@ -5565,16 +5580,16 @@
         <v>36</v>
       </c>
       <c r="B39" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="C39" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="D39" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="E39" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="F39" t="s">
         <v>86</v>
@@ -5586,16 +5601,16 @@
         <v>37</v>
       </c>
       <c r="B40" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="C40" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="D40" t="s">
         <v>56</v>
       </c>
       <c r="E40" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="F40" t="s">
         <v>86</v>
@@ -5607,16 +5622,16 @@
         <v>38</v>
       </c>
       <c r="B41" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C41" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="D41" t="s">
         <v>48</v>
       </c>
       <c r="E41" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="F41" t="s">
         <v>86</v>
@@ -5684,7 +5699,7 @@
   <sheetPr/>
   <dimension ref="A1:N45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
@@ -5708,74 +5723,74 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="C3" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
     </row>
     <row r="4" customHeight="true" spans="3:14">
       <c r="C4" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="D4" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="E4" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="F4" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="G4" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="H4" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="I4" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="J4" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="K4" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="L4" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="M4" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="N4" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
     </row>
     <row r="5" customHeight="true" spans="3:3">
       <c r="C5" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
     </row>
     <row r="6" customHeight="true" spans="3:3">
       <c r="C6" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
     </row>
     <row r="7" customHeight="true" spans="3:5">
       <c r="C7" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="D7" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="E7" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
     </row>
     <row r="13" customHeight="true" spans="4:8">
       <c r="D13" s="1" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
@@ -5791,59 +5806,59 @@
     </row>
     <row r="16" customHeight="true" spans="1:2">
       <c r="A16" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="B16" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
     </row>
     <row r="17" customHeight="true" spans="1:8">
       <c r="A17" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="B17">
         <v>338</v>
       </c>
-      <c r="D17" s="2" t="s">
-        <v>415</v>
-      </c>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
+      <c r="D17" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
     </row>
     <row r="18" customHeight="true" spans="1:8">
       <c r="A18" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="B18" t="s">
-        <v>417</v>
-      </c>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
+        <v>419</v>
+      </c>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
     </row>
     <row r="19" customHeight="true" spans="1:2">
       <c r="A19" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="B19" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
     </row>
     <row r="20" customHeight="true" spans="1:2">
       <c r="A20" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="B20" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
     </row>
     <row r="21" customHeight="true" spans="1:2">
       <c r="A21" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="B21">
         <v>289</v>
@@ -5851,79 +5866,79 @@
     </row>
     <row r="36" customHeight="true" spans="1:12">
       <c r="A36" s="1" t="s">
-        <v>422</v>
-      </c>
-      <c r="B36" s="3"/>
-      <c r="C36" s="3"/>
-      <c r="D36" s="3"/>
-      <c r="E36" s="3"/>
-      <c r="F36" s="3"/>
-      <c r="G36" s="3"/>
-      <c r="H36" s="3"/>
-      <c r="I36" s="3"/>
-      <c r="J36" s="3"/>
-      <c r="K36" s="3"/>
-      <c r="L36" s="3"/>
+        <v>424</v>
+      </c>
+      <c r="B36" s="2"/>
+      <c r="C36" s="2"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="2"/>
+      <c r="G36" s="2"/>
+      <c r="H36" s="2"/>
+      <c r="I36" s="2"/>
+      <c r="J36" s="2"/>
+      <c r="K36" s="2"/>
+      <c r="L36" s="2"/>
     </row>
     <row r="37" customHeight="true" spans="1:12">
-      <c r="A37" s="3"/>
-      <c r="B37" s="3"/>
-      <c r="C37" s="3"/>
-      <c r="D37" s="3"/>
-      <c r="E37" s="3"/>
-      <c r="F37" s="3"/>
-      <c r="G37" s="3"/>
-      <c r="H37" s="3"/>
-      <c r="I37" s="3"/>
-      <c r="J37" s="3"/>
-      <c r="K37" s="3"/>
-      <c r="L37" s="3"/>
+      <c r="A37" s="2"/>
+      <c r="B37" s="2"/>
+      <c r="C37" s="2"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
+      <c r="F37" s="2"/>
+      <c r="G37" s="2"/>
+      <c r="H37" s="2"/>
+      <c r="I37" s="2"/>
+      <c r="J37" s="2"/>
+      <c r="K37" s="2"/>
+      <c r="L37" s="2"/>
     </row>
     <row r="38" customHeight="true" spans="1:12">
-      <c r="A38" s="3"/>
-      <c r="B38" s="3"/>
-      <c r="C38" s="3"/>
-      <c r="D38" s="3"/>
-      <c r="E38" s="3"/>
-      <c r="F38" s="3"/>
-      <c r="G38" s="3"/>
-      <c r="H38" s="3"/>
-      <c r="I38" s="3"/>
-      <c r="J38" s="3"/>
-      <c r="K38" s="3"/>
-      <c r="L38" s="3"/>
+      <c r="A38" s="2"/>
+      <c r="B38" s="2"/>
+      <c r="C38" s="2"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
+      <c r="F38" s="2"/>
+      <c r="G38" s="2"/>
+      <c r="H38" s="2"/>
+      <c r="I38" s="2"/>
+      <c r="J38" s="2"/>
+      <c r="K38" s="2"/>
+      <c r="L38" s="2"/>
     </row>
     <row r="39" customHeight="true" spans="1:12">
-      <c r="A39" s="3"/>
-      <c r="B39" s="3"/>
-      <c r="C39" s="3"/>
-      <c r="D39" s="3"/>
-      <c r="E39" s="3"/>
-      <c r="F39" s="3"/>
-      <c r="G39" s="3"/>
-      <c r="H39" s="3"/>
-      <c r="I39" s="3"/>
-      <c r="J39" s="3"/>
-      <c r="K39" s="3"/>
-      <c r="L39" s="3"/>
+      <c r="A39" s="2"/>
+      <c r="B39" s="2"/>
+      <c r="C39" s="2"/>
+      <c r="D39" s="2"/>
+      <c r="E39" s="2"/>
+      <c r="F39" s="2"/>
+      <c r="G39" s="2"/>
+      <c r="H39" s="2"/>
+      <c r="I39" s="2"/>
+      <c r="J39" s="2"/>
+      <c r="K39" s="2"/>
+      <c r="L39" s="2"/>
     </row>
     <row r="40" customHeight="true" spans="1:12">
-      <c r="A40" s="3"/>
-      <c r="B40" s="3"/>
-      <c r="C40" s="3"/>
-      <c r="D40" s="3"/>
-      <c r="E40" s="3"/>
-      <c r="F40" s="3"/>
-      <c r="G40" s="3"/>
-      <c r="H40" s="3"/>
-      <c r="I40" s="3"/>
-      <c r="J40" s="3"/>
-      <c r="K40" s="3"/>
-      <c r="L40" s="3"/>
+      <c r="A40" s="2"/>
+      <c r="B40" s="2"/>
+      <c r="C40" s="2"/>
+      <c r="D40" s="2"/>
+      <c r="E40" s="2"/>
+      <c r="F40" s="2"/>
+      <c r="G40" s="2"/>
+      <c r="H40" s="2"/>
+      <c r="I40" s="2"/>
+      <c r="J40" s="2"/>
+      <c r="K40" s="2"/>
+      <c r="L40" s="2"/>
     </row>
     <row r="42" customHeight="true" spans="1:11">
       <c r="A42" s="1" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>

--- a/ReadandFitness/Read_record.xlsx
+++ b/ReadandFitness/Read_record.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="681" uniqueCount="426">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="687" uniqueCount="427">
   <si>
     <t>阅读记录</t>
   </si>
@@ -604,6 +604,24 @@
     <t>2021.1.24</t>
   </si>
   <si>
+    <t>经济学原理</t>
+  </si>
+  <si>
+    <t>张维迎著</t>
+  </si>
+  <si>
+    <t>西北大学出版社</t>
+  </si>
+  <si>
+    <t>9787560437033</t>
+  </si>
+  <si>
+    <t>2020.7.16</t>
+  </si>
+  <si>
+    <t>2021.1.26</t>
+  </si>
+  <si>
     <t>藏书目录</t>
   </si>
   <si>
@@ -808,9 +826,6 @@
     <t>9787553798196</t>
   </si>
   <si>
-    <t>2020.7.16</t>
-  </si>
-  <si>
     <t>活着</t>
   </si>
   <si>
@@ -833,18 +848,6 @@
   </si>
   <si>
     <t>9787533945251</t>
-  </si>
-  <si>
-    <t>经济学原理</t>
-  </si>
-  <si>
-    <t>张维迎著</t>
-  </si>
-  <si>
-    <t>西北大学出版社</t>
-  </si>
-  <si>
-    <t>9787560437033</t>
   </si>
   <si>
     <t>鲁滨孙漂流记</t>
@@ -1311,10 +1314,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -1341,6 +1344,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -1358,13 +1376,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -1372,8 +1383,16 @@
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1394,13 +1413,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -1409,16 +1421,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1432,9 +1444,38 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1444,44 +1485,6 @@
       <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1494,43 +1497,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1548,7 +1521,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1560,31 +1623,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1596,37 +1647,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1638,43 +1677,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1697,17 +1700,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1717,21 +1716,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1751,13 +1735,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1785,153 +1773,168 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="5" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="2" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="8" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="8" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="7" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="6" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2506,7 +2509,7 @@
   <dimension ref="A1:I52"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="F41" sqref="F41"/>
+      <selection activeCell="G48" sqref="G48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14" defaultRowHeight="25" customHeight="true"/>
@@ -3545,10 +3548,28 @@
         <v>194</v>
       </c>
     </row>
-    <row r="46" customHeight="true" spans="1:1">
+    <row r="46" customHeight="true" spans="1:7">
       <c r="A46">
         <f t="shared" si="4"/>
         <v>43</v>
+      </c>
+      <c r="B46" t="s">
+        <v>195</v>
+      </c>
+      <c r="C46" t="s">
+        <v>196</v>
+      </c>
+      <c r="D46" t="s">
+        <v>197</v>
+      </c>
+      <c r="E46" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="F46" t="s">
+        <v>199</v>
+      </c>
+      <c r="G46" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="47" customHeight="true" spans="1:1">
@@ -3604,7 +3625,7 @@
   <dimension ref="A1:I86"/>
   <sheetViews>
     <sheetView topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="B40" sqref="B40:F40"/>
+      <selection activeCell="B31" sqref="B31:F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.14" defaultRowHeight="24" customHeight="true"/>
@@ -3620,7 +3641,7 @@
   <sheetData>
     <row r="1" customHeight="true" spans="1:9">
       <c r="A1" s="5" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -3656,7 +3677,7 @@
         <v>4</v>
       </c>
       <c r="E3" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="F3" t="s">
         <v>6</v>
@@ -3710,10 +3731,10 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="F6" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
     </row>
     <row r="7" customHeight="true" spans="1:6">
@@ -3722,16 +3743,16 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="C7" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="D7" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="F7" t="s">
         <v>45</v>
@@ -3743,16 +3764,16 @@
         <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="C8" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="D8" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="F8" t="s">
         <v>45</v>
@@ -3764,16 +3785,16 @@
         <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="C9" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="D9" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="F9" t="s">
         <v>45</v>
@@ -3785,16 +3806,16 @@
         <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="C10" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="D10" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="F10" t="s">
         <v>45</v>
@@ -3806,16 +3827,16 @@
         <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="C11" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="D11" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="F11" t="s">
         <v>45</v>
@@ -3827,16 +3848,16 @@
         <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="C12" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="D12" t="s">
         <v>48</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="F12" t="s">
         <v>45</v>
@@ -3848,16 +3869,16 @@
         <v>10</v>
       </c>
       <c r="B13" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="C13" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="D13" t="s">
         <v>48</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="F13" t="s">
         <v>45</v>
@@ -3869,16 +3890,16 @@
         <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="C14" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="D14" t="s">
         <v>48</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="F14" t="s">
         <v>45</v>
@@ -3890,16 +3911,16 @@
         <v>12</v>
       </c>
       <c r="B15" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="C15" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="D15" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="F15" t="s">
         <v>45</v>
@@ -3911,16 +3932,16 @@
         <v>13</v>
       </c>
       <c r="B16" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="C16" t="s">
         <v>179</v>
       </c>
       <c r="D16" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="F16" t="s">
         <v>45</v>
@@ -3932,16 +3953,16 @@
         <v>14</v>
       </c>
       <c r="B17" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="C17" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="D17" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="F17" t="s">
         <v>45</v>
@@ -3953,16 +3974,16 @@
         <v>15</v>
       </c>
       <c r="B18" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="C18" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="D18" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="F18" t="s">
         <v>45</v>
@@ -3974,16 +3995,16 @@
         <v>16</v>
       </c>
       <c r="B19" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="C19" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="D19" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="F19" t="s">
         <v>45</v>
@@ -4058,16 +4079,16 @@
         <v>20</v>
       </c>
       <c r="B23" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="C23" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="D23" t="s">
         <v>48</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="F23" t="s">
         <v>86</v>
@@ -4079,16 +4100,16 @@
         <v>21</v>
       </c>
       <c r="B24" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="C24" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="D24" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="F24" t="s">
         <v>86</v>
@@ -4100,16 +4121,16 @@
         <v>22</v>
       </c>
       <c r="B25" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="C25" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="D25" t="s">
         <v>56</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="F25" t="s">
         <v>86</v>
@@ -4121,16 +4142,16 @@
         <v>23</v>
       </c>
       <c r="B26" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="C26" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="D26" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="F26" t="s">
         <v>86</v>
@@ -4142,16 +4163,16 @@
         <v>24</v>
       </c>
       <c r="B27" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="C27" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="D27" t="s">
         <v>135</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="F27" t="s">
         <v>86</v>
@@ -4166,16 +4187,16 @@
         <v>68</v>
       </c>
       <c r="C28" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="D28" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="F28" t="s">
-        <v>263</v>
+        <v>199</v>
       </c>
     </row>
     <row r="29" customHeight="true" spans="1:6">
@@ -4184,19 +4205,19 @@
         <v>26</v>
       </c>
       <c r="B29" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="C29" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="D29" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="E29" s="6" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="F29" t="s">
-        <v>263</v>
+        <v>199</v>
       </c>
     </row>
     <row r="30" customHeight="true" spans="1:6">
@@ -4205,19 +4226,19 @@
         <v>27</v>
       </c>
       <c r="B30" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="C30" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="D30" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="F30" t="s">
-        <v>263</v>
+        <v>199</v>
       </c>
     </row>
     <row r="31" customHeight="true" spans="1:6">
@@ -4226,19 +4247,19 @@
         <v>28</v>
       </c>
       <c r="B31" t="s">
-        <v>272</v>
+        <v>195</v>
       </c>
       <c r="C31" t="s">
-        <v>273</v>
+        <v>196</v>
       </c>
       <c r="D31" t="s">
-        <v>274</v>
+        <v>197</v>
       </c>
       <c r="E31" s="6" t="s">
-        <v>275</v>
+        <v>198</v>
       </c>
       <c r="F31" t="s">
-        <v>263</v>
+        <v>199</v>
       </c>
     </row>
     <row r="32" customHeight="true" spans="1:6">
@@ -4247,19 +4268,19 @@
         <v>29</v>
       </c>
       <c r="B32" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C32" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="D32" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="E32" s="6" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="F32" t="s">
-        <v>263</v>
+        <v>199</v>
       </c>
     </row>
     <row r="33" customHeight="true" spans="1:6">
@@ -4268,19 +4289,19 @@
         <v>30</v>
       </c>
       <c r="B33" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C33" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="D33" t="s">
         <v>60</v>
       </c>
       <c r="E33" s="6" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="F33" t="s">
-        <v>263</v>
+        <v>199</v>
       </c>
     </row>
     <row r="34" customHeight="true" spans="1:6">
@@ -4289,19 +4310,19 @@
         <v>31</v>
       </c>
       <c r="B34" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C34" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="D34" t="s">
         <v>60</v>
       </c>
       <c r="E34" s="6" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="F34" t="s">
-        <v>263</v>
+        <v>199</v>
       </c>
     </row>
     <row r="35" customHeight="true" spans="1:6">
@@ -4310,19 +4331,19 @@
         <v>32</v>
       </c>
       <c r="B35" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="C35" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="D35" t="s">
         <v>60</v>
       </c>
       <c r="E35" s="6" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="F35" t="s">
-        <v>263</v>
+        <v>199</v>
       </c>
     </row>
     <row r="36" customHeight="true" spans="1:6">
@@ -4331,19 +4352,19 @@
         <v>33</v>
       </c>
       <c r="B36" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C36" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="D36" t="s">
         <v>60</v>
       </c>
       <c r="E36" s="6" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="F36" t="s">
-        <v>263</v>
+        <v>199</v>
       </c>
     </row>
     <row r="37" customHeight="true" spans="1:6">
@@ -4352,19 +4373,19 @@
         <v>34</v>
       </c>
       <c r="B37" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C37" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="D37" t="s">
         <v>60</v>
       </c>
       <c r="E37" s="6" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="F37" t="s">
-        <v>263</v>
+        <v>199</v>
       </c>
     </row>
     <row r="38" customHeight="true" spans="1:6">
@@ -4373,19 +4394,19 @@
         <v>35</v>
       </c>
       <c r="B38" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C38" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="D38" t="s">
         <v>60</v>
       </c>
       <c r="E38" s="6" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="F38" t="s">
-        <v>263</v>
+        <v>199</v>
       </c>
     </row>
     <row r="39" customHeight="true" spans="1:6">
@@ -4394,16 +4415,16 @@
         <v>36</v>
       </c>
       <c r="B39" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C39" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="D39" t="s">
         <v>48</v>
       </c>
       <c r="E39" s="6" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="F39" t="s">
         <v>101</v>
@@ -4436,16 +4457,16 @@
         <v>38</v>
       </c>
       <c r="B41" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C41" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="D41" t="s">
         <v>48</v>
       </c>
       <c r="E41" s="6" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="F41" t="s">
         <v>101</v>
@@ -4478,16 +4499,16 @@
         <v>40</v>
       </c>
       <c r="B43" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="C43" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="D43" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="E43" s="6" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="F43" t="s">
         <v>118</v>
@@ -4499,16 +4520,16 @@
         <v>41</v>
       </c>
       <c r="B44" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C44" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="D44" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="E44" s="6" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="F44" t="s">
         <v>118</v>
@@ -4797,7 +4818,7 @@
   <sheetData>
     <row r="1" customHeight="true" spans="1:9">
       <c r="A1" s="3" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -4854,7 +4875,7 @@
         <v>25</v>
       </c>
       <c r="E4" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="F4" t="s">
         <v>27</v>
@@ -4875,7 +4896,7 @@
         <v>25</v>
       </c>
       <c r="E5" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="F5" t="s">
         <v>32</v>
@@ -4896,7 +4917,7 @@
         <v>25</v>
       </c>
       <c r="E6" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="F6" t="s">
         <v>36</v>
@@ -4908,19 +4929,19 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="C7" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="D7" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="E7" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="F7" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
     <row r="8" customHeight="true" spans="1:6">
@@ -4929,19 +4950,19 @@
         <v>5</v>
       </c>
       <c r="B8" t="s">
+        <v>318</v>
+      </c>
+      <c r="C8" t="s">
+        <v>319</v>
+      </c>
+      <c r="D8" t="s">
+        <v>320</v>
+      </c>
+      <c r="E8" t="s">
+        <v>321</v>
+      </c>
+      <c r="F8" t="s">
         <v>317</v>
-      </c>
-      <c r="C8" t="s">
-        <v>318</v>
-      </c>
-      <c r="D8" t="s">
-        <v>319</v>
-      </c>
-      <c r="E8" t="s">
-        <v>320</v>
-      </c>
-      <c r="F8" t="s">
-        <v>316</v>
       </c>
     </row>
     <row r="9" customHeight="true" spans="1:6">
@@ -4950,19 +4971,19 @@
         <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C9" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="D9" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="E9" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="F9" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
     <row r="10" customHeight="true" spans="1:6">
@@ -5001,7 +5022,7 @@
         <v>48</v>
       </c>
       <c r="E11" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="F11" t="s">
         <v>45</v>
@@ -5043,7 +5064,7 @@
         <v>43</v>
       </c>
       <c r="E13" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="F13" t="s">
         <v>45</v>
@@ -5055,16 +5076,16 @@
         <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="C14" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="D14" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="E14" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="F14" t="s">
         <v>45</v>
@@ -5100,13 +5121,13 @@
         <v>78</v>
       </c>
       <c r="C16" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="D16" t="s">
         <v>43</v>
       </c>
       <c r="E16" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="F16" t="s">
         <v>62</v>
@@ -5139,16 +5160,16 @@
         <v>15</v>
       </c>
       <c r="B18" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="C18" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="D18" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="E18" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="F18" t="s">
         <v>67</v>
@@ -5181,19 +5202,19 @@
         <v>17</v>
       </c>
       <c r="B20" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="C20" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="D20" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="E20" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="F20" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="21" customHeight="true" spans="1:6">
@@ -5202,16 +5223,16 @@
         <v>18</v>
       </c>
       <c r="B21" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="C21" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="D21" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="E21" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="F21" t="s">
         <v>191</v>
@@ -5223,16 +5244,16 @@
         <v>19</v>
       </c>
       <c r="B22" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="C22" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="D22" t="s">
         <v>48</v>
       </c>
       <c r="E22" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="F22" t="s">
         <v>191</v>
@@ -5244,16 +5265,16 @@
         <v>20</v>
       </c>
       <c r="B23" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="C23" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="D23" t="s">
         <v>56</v>
       </c>
       <c r="E23" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="F23" t="s">
         <v>191</v>
@@ -5265,16 +5286,16 @@
         <v>21</v>
       </c>
       <c r="B24" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C24" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="D24" t="s">
         <v>43</v>
       </c>
       <c r="E24" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="F24" t="s">
         <v>191</v>
@@ -5286,16 +5307,16 @@
         <v>22</v>
       </c>
       <c r="B25" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C25" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="D25" t="s">
         <v>25</v>
       </c>
       <c r="E25" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="F25" t="s">
         <v>191</v>
@@ -5328,19 +5349,19 @@
         <v>24</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C27" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="D27" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="E27" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="F27" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
     </row>
     <row r="28" customHeight="true" spans="1:6">
@@ -5349,19 +5370,19 @@
         <v>25</v>
       </c>
       <c r="B28" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="D28" t="s">
         <v>105</v>
       </c>
       <c r="E28" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="F28" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
     </row>
     <row r="29" customHeight="true" spans="1:6">
@@ -5370,19 +5391,19 @@
         <v>26</v>
       </c>
       <c r="B29" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="C29" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="D29" t="s">
         <v>189</v>
       </c>
       <c r="E29" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="F29" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
     </row>
     <row r="30" customHeight="true" spans="1:6">
@@ -5391,19 +5412,19 @@
         <v>27</v>
       </c>
       <c r="B30" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="C30" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="D30" t="s">
         <v>48</v>
       </c>
       <c r="E30" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="F30" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
     </row>
     <row r="31" customHeight="true" spans="1:6">
@@ -5412,19 +5433,19 @@
         <v>28</v>
       </c>
       <c r="B31" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="C31" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D31" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="E31" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="F31" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
     </row>
     <row r="32" customHeight="true" spans="1:6">
@@ -5433,19 +5454,19 @@
         <v>29</v>
       </c>
       <c r="B32" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="C32" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="D32" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="E32" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="F32" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
     </row>
     <row r="33" customHeight="true" spans="1:6">
@@ -5463,7 +5484,7 @@
         <v>48</v>
       </c>
       <c r="E33" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="F33" t="s">
         <v>86</v>
@@ -5484,7 +5505,7 @@
         <v>105</v>
       </c>
       <c r="E34" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="F34" t="s">
         <v>86</v>
@@ -5496,16 +5517,16 @@
         <v>32</v>
       </c>
       <c r="B35" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="C35" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="D35" t="s">
         <v>48</v>
       </c>
       <c r="E35" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="F35" t="s">
         <v>86</v>
@@ -5517,16 +5538,16 @@
         <v>33</v>
       </c>
       <c r="B36" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="C36" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="D36" t="s">
         <v>160</v>
       </c>
       <c r="E36" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="F36" t="s">
         <v>86</v>
@@ -5580,16 +5601,16 @@
         <v>36</v>
       </c>
       <c r="B39" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="C39" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="D39" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="E39" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="F39" t="s">
         <v>86</v>
@@ -5601,16 +5622,16 @@
         <v>37</v>
       </c>
       <c r="B40" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="C40" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="D40" t="s">
         <v>56</v>
       </c>
       <c r="E40" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="F40" t="s">
         <v>86</v>
@@ -5625,13 +5646,13 @@
         <v>181</v>
       </c>
       <c r="C41" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="D41" t="s">
         <v>48</v>
       </c>
       <c r="E41" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="F41" t="s">
         <v>86</v>
@@ -5723,74 +5744,74 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="C3" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
     </row>
     <row r="4" customHeight="true" spans="3:14">
       <c r="C4" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="D4" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="E4" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="F4" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="G4" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="H4" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="I4" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="J4" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="K4" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="L4" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="M4" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="N4" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
     </row>
     <row r="5" customHeight="true" spans="3:3">
       <c r="C5" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
     </row>
     <row r="6" customHeight="true" spans="3:3">
       <c r="C6" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
     </row>
     <row r="7" customHeight="true" spans="3:5">
       <c r="C7" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="D7" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="E7" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
     </row>
     <row r="13" customHeight="true" spans="4:8">
       <c r="D13" s="1" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
@@ -5806,21 +5827,21 @@
     </row>
     <row r="16" customHeight="true" spans="1:2">
       <c r="A16" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="B16" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
     </row>
     <row r="17" customHeight="true" spans="1:8">
       <c r="A17" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B17">
         <v>338</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
@@ -5829,10 +5850,10 @@
     </row>
     <row r="18" customHeight="true" spans="1:8">
       <c r="A18" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="B18" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
@@ -5842,23 +5863,23 @@
     </row>
     <row r="19" customHeight="true" spans="1:2">
       <c r="A19" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="B19" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
     </row>
     <row r="20" customHeight="true" spans="1:2">
       <c r="A20" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="B20" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
     </row>
     <row r="21" customHeight="true" spans="1:2">
       <c r="A21" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="B21">
         <v>289</v>
@@ -5866,7 +5887,7 @@
     </row>
     <row r="36" customHeight="true" spans="1:12">
       <c r="A36" s="1" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
@@ -5938,7 +5959,7 @@
     </row>
     <row r="42" customHeight="true" spans="1:11">
       <c r="A42" s="1" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>

--- a/ReadandFitness/Read_record.xlsx
+++ b/ReadandFitness/Read_record.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17850"/>
+    <workbookView windowWidth="20730" windowHeight="8190" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="687" uniqueCount="427">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="689" uniqueCount="429">
   <si>
     <t>阅读记录</t>
   </si>
@@ -1292,6 +1292,12 @@
   </si>
   <si>
     <t>429 HKD</t>
+  </si>
+  <si>
+    <t>马里奥赛车8</t>
+  </si>
+  <si>
+    <t>买swtich带的</t>
   </si>
   <si>
     <t>你童年时期和少年时期主要是和谁在一起生活？你对他们是如何评价？你最欣赏的亲人是谁？为什么？和奶奶，弟弟。
@@ -1314,10 +1320,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -1346,7 +1352,53 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1360,46 +1412,8 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1413,9 +1427,46 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1428,22 +1479,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -1451,38 +1486,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1497,13 +1503,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1515,55 +1605,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1581,7 +1623,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1593,61 +1665,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1659,25 +1683,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1700,6 +1706,36 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -1707,15 +1743,6 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1735,17 +1762,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1768,23 +1789,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1793,148 +1799,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="5" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="3" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="5" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="8" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="2" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="8" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="2" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="6" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="7" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2508,7 +2514,7 @@
   <sheetPr/>
   <dimension ref="A1:I52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+    <sheetView topLeftCell="A35" workbookViewId="0">
       <selection activeCell="G48" sqref="G48"/>
     </sheetView>
   </sheetViews>
@@ -5720,8 +5726,8 @@
   <sheetPr/>
   <dimension ref="A1:N45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.14" defaultRowHeight="24" customHeight="true"/>
@@ -5885,9 +5891,17 @@
         <v>289</v>
       </c>
     </row>
+    <row r="22" customHeight="true" spans="1:3">
+      <c r="A22" t="s">
+        <v>425</v>
+      </c>
+      <c r="C22" t="s">
+        <v>426</v>
+      </c>
+    </row>
     <row r="36" customHeight="true" spans="1:12">
       <c r="A36" s="1" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
@@ -5959,7 +5973,7 @@
     </row>
     <row r="42" customHeight="true" spans="1:11">
       <c r="A42" s="1" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>

--- a/ReadandFitness/Read_record.xlsx
+++ b/ReadandFitness/Read_record.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20730" windowHeight="8190" activeTab="3"/>
+    <workbookView windowWidth="27720" windowHeight="12450" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="689" uniqueCount="429">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="693" uniqueCount="432">
   <si>
     <t>阅读记录</t>
   </si>
@@ -1298,6 +1298,15 @@
   </si>
   <si>
     <t>买swtich带的</t>
+  </si>
+  <si>
+    <t>1024.02元</t>
+  </si>
+  <si>
+    <t>奥日精灵2：</t>
+  </si>
+  <si>
+    <t>异度之刃2</t>
   </si>
   <si>
     <t>你童年时期和少年时期主要是和谁在一起生活？你对他们是如何评价？你最欣赏的亲人是谁？为什么？和奶奶，弟弟。
@@ -1320,10 +1329,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -1350,14 +1359,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -1367,10 +1368,25 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1382,23 +1398,8 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1413,14 +1414,21 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -1428,30 +1436,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1465,22 +1457,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1489,6 +1468,36 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1503,7 +1512,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1515,37 +1650,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1557,85 +1674,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1647,43 +1692,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1706,17 +1715,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1747,21 +1765,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -1786,11 +1789,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1799,157 +1808,160 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="3" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="4" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="5" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="2" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="8" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="8" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="2" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="7" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="7" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
@@ -2531,28 +2543,28 @@
   </cols>
   <sheetData>
     <row r="1" customHeight="true" spans="1:9">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
     </row>
     <row r="2" customHeight="true" spans="1:9">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
     </row>
     <row r="3" customHeight="true" spans="1:8">
       <c r="A3" t="s">
@@ -2594,13 +2606,13 @@
       <c r="D4" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="F4" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="G4" s="3" t="s">
         <v>14</v>
       </c>
       <c r="H4" t="s">
@@ -2621,13 +2633,13 @@
       <c r="D5" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F5" t="s">
         <v>18</v>
       </c>
-      <c r="G5" s="2"/>
+      <c r="G5" s="3"/>
       <c r="H5" t="s">
         <v>19</v>
       </c>
@@ -2643,7 +2655,7 @@
       <c r="C6" t="s">
         <v>21</v>
       </c>
-      <c r="G6" s="2"/>
+      <c r="G6" s="3"/>
       <c r="H6" t="s">
         <v>22</v>
       </c>
@@ -2668,7 +2680,7 @@
       <c r="F7" t="s">
         <v>27</v>
       </c>
-      <c r="G7" s="2"/>
+      <c r="G7" s="3"/>
       <c r="H7" s="1" t="s">
         <v>28</v>
       </c>
@@ -2693,7 +2705,7 @@
       <c r="F8" t="s">
         <v>32</v>
       </c>
-      <c r="G8" s="2"/>
+      <c r="G8" s="3"/>
       <c r="H8" s="1"/>
     </row>
     <row r="9" customHeight="true" spans="1:8">
@@ -2716,7 +2728,7 @@
       <c r="F9" t="s">
         <v>36</v>
       </c>
-      <c r="G9" s="2"/>
+      <c r="G9" s="3"/>
       <c r="H9" s="1"/>
     </row>
     <row r="10" customHeight="true" spans="1:8">
@@ -2730,7 +2742,7 @@
       <c r="C10" t="s">
         <v>38</v>
       </c>
-      <c r="G10" s="2"/>
+      <c r="G10" s="3"/>
       <c r="H10" s="1"/>
     </row>
     <row r="11" customHeight="true" spans="1:8">
@@ -2744,7 +2756,7 @@
       <c r="C11" t="s">
         <v>40</v>
       </c>
-      <c r="G11" s="2"/>
+      <c r="G11" s="3"/>
       <c r="H11" s="1"/>
     </row>
     <row r="12" customHeight="true" spans="1:8">
@@ -2767,7 +2779,7 @@
       <c r="F12" t="s">
         <v>45</v>
       </c>
-      <c r="G12" s="2"/>
+      <c r="G12" s="3"/>
       <c r="H12" s="1"/>
     </row>
     <row r="13" customHeight="true" spans="1:8">
@@ -2790,7 +2802,7 @@
       <c r="F13" t="s">
         <v>45</v>
       </c>
-      <c r="G13" s="2"/>
+      <c r="G13" s="3"/>
       <c r="H13" s="1"/>
     </row>
     <row r="14" customHeight="true" spans="1:8">
@@ -2813,7 +2825,7 @@
       <c r="F14" t="s">
         <v>45</v>
       </c>
-      <c r="G14" s="2"/>
+      <c r="G14" s="3"/>
       <c r="H14" s="1"/>
     </row>
     <row r="15" customHeight="true" spans="1:8">
@@ -2836,7 +2848,7 @@
       <c r="F15" t="s">
         <v>45</v>
       </c>
-      <c r="G15" s="2"/>
+      <c r="G15" s="3"/>
       <c r="H15" s="1"/>
     </row>
     <row r="16" customHeight="true" spans="1:8">
@@ -2859,7 +2871,7 @@
       <c r="F16" t="s">
         <v>62</v>
       </c>
-      <c r="G16" s="2"/>
+      <c r="G16" s="3"/>
       <c r="H16" s="1"/>
     </row>
     <row r="17" customHeight="true" spans="1:8">
@@ -2882,7 +2894,7 @@
       <c r="F17" t="s">
         <v>67</v>
       </c>
-      <c r="G17" s="2"/>
+      <c r="G17" s="3"/>
       <c r="H17" s="1"/>
     </row>
     <row r="18" customHeight="true" spans="1:8">
@@ -2899,10 +2911,10 @@
       <c r="D18" t="s">
         <v>70</v>
       </c>
-      <c r="E18" s="6" t="s">
+      <c r="E18" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="G18" s="2"/>
+      <c r="G18" s="3"/>
       <c r="H18" t="s">
         <v>72</v>
       </c>
@@ -2921,13 +2933,13 @@
       <c r="D19" t="s">
         <v>56</v>
       </c>
-      <c r="E19" s="6" t="s">
+      <c r="E19" s="7" t="s">
         <v>75</v>
       </c>
       <c r="F19" t="s">
         <v>76</v>
       </c>
-      <c r="G19" s="2"/>
+      <c r="G19" s="3"/>
       <c r="H19" t="s">
         <v>77</v>
       </c>
@@ -2946,13 +2958,13 @@
       <c r="D20" t="s">
         <v>43</v>
       </c>
-      <c r="E20" s="6" t="s">
+      <c r="E20" s="7" t="s">
         <v>80</v>
       </c>
       <c r="F20" t="s">
         <v>76</v>
       </c>
-      <c r="G20" s="2"/>
+      <c r="G20" s="3"/>
       <c r="H20" t="s">
         <v>81</v>
       </c>
@@ -2998,7 +3010,7 @@
       <c r="D22" t="s">
         <v>90</v>
       </c>
-      <c r="E22" s="6" t="s">
+      <c r="E22" s="7" t="s">
         <v>91</v>
       </c>
       <c r="F22" t="s">
@@ -3106,7 +3118,7 @@
       <c r="D26" t="s">
         <v>110</v>
       </c>
-      <c r="E26" s="6" t="s">
+      <c r="E26" s="7" t="s">
         <v>111</v>
       </c>
       <c r="G26" t="s">
@@ -3130,7 +3142,7 @@
       <c r="D27" t="s">
         <v>116</v>
       </c>
-      <c r="E27" s="6" t="s">
+      <c r="E27" s="7" t="s">
         <v>117</v>
       </c>
       <c r="F27" t="s">
@@ -3157,7 +3169,7 @@
       <c r="D28" t="s">
         <v>122</v>
       </c>
-      <c r="E28" s="6" t="s">
+      <c r="E28" s="7" t="s">
         <v>123</v>
       </c>
       <c r="G28" t="s">
@@ -3229,7 +3241,7 @@
       <c r="D31" t="s">
         <v>135</v>
       </c>
-      <c r="E31" s="6" t="s">
+      <c r="E31" s="7" t="s">
         <v>136</v>
       </c>
       <c r="F31" t="s">
@@ -3256,7 +3268,7 @@
       <c r="D32" t="s">
         <v>43</v>
       </c>
-      <c r="E32" s="6" t="s">
+      <c r="E32" s="7" t="s">
         <v>141</v>
       </c>
       <c r="F32" t="s">
@@ -3283,7 +3295,7 @@
       <c r="D33" t="s">
         <v>56</v>
       </c>
-      <c r="E33" s="6" t="s">
+      <c r="E33" s="7" t="s">
         <v>146</v>
       </c>
       <c r="G33" t="s">
@@ -3307,7 +3319,7 @@
       <c r="D34" t="s">
         <v>25</v>
       </c>
-      <c r="E34" s="6" t="s">
+      <c r="E34" s="7" t="s">
         <v>151</v>
       </c>
       <c r="G34" t="s">
@@ -3331,7 +3343,7 @@
       <c r="D35" t="s">
         <v>135</v>
       </c>
-      <c r="E35" s="6" t="s">
+      <c r="E35" s="7" t="s">
         <v>155</v>
       </c>
       <c r="G35" t="s">
@@ -3355,7 +3367,7 @@
       <c r="D36" t="s">
         <v>160</v>
       </c>
-      <c r="E36" s="6" t="s">
+      <c r="E36" s="7" t="s">
         <v>161</v>
       </c>
       <c r="G36" t="s">
@@ -3379,7 +3391,7 @@
       <c r="D37" t="s">
         <v>43</v>
       </c>
-      <c r="E37" s="6" t="s">
+      <c r="E37" s="7" t="s">
         <v>165</v>
       </c>
       <c r="G37" t="s">
@@ -3400,7 +3412,7 @@
       <c r="D38" t="s">
         <v>135</v>
       </c>
-      <c r="E38" s="6" t="s">
+      <c r="E38" s="7" t="s">
         <v>168</v>
       </c>
       <c r="G38" t="s">
@@ -3421,7 +3433,7 @@
       <c r="D39" t="s">
         <v>52</v>
       </c>
-      <c r="E39" s="6" t="s">
+      <c r="E39" s="7" t="s">
         <v>171</v>
       </c>
       <c r="G39" t="s">
@@ -3445,7 +3457,7 @@
       <c r="D40" t="s">
         <v>48</v>
       </c>
-      <c r="E40" s="6" t="s">
+      <c r="E40" s="7" t="s">
         <v>176</v>
       </c>
       <c r="F40" t="s">
@@ -3472,7 +3484,7 @@
       <c r="D41" t="s">
         <v>70</v>
       </c>
-      <c r="E41" s="6" t="s">
+      <c r="E41" s="7" t="s">
         <v>180</v>
       </c>
     </row>
@@ -3490,7 +3502,7 @@
       <c r="D42" t="s">
         <v>48</v>
       </c>
-      <c r="E42" s="6" t="s">
+      <c r="E42" s="7" t="s">
         <v>183</v>
       </c>
     </row>
@@ -3508,7 +3520,7 @@
       <c r="D43" t="s">
         <v>56</v>
       </c>
-      <c r="E43" s="6" t="s">
+      <c r="E43" s="7" t="s">
         <v>186</v>
       </c>
     </row>
@@ -3547,7 +3559,7 @@
       <c r="D45" t="s">
         <v>192</v>
       </c>
-      <c r="E45" s="6" t="s">
+      <c r="E45" s="7" t="s">
         <v>193</v>
       </c>
       <c r="G45" t="s">
@@ -3568,7 +3580,7 @@
       <c r="D46" t="s">
         <v>197</v>
       </c>
-      <c r="E46" s="6" t="s">
+      <c r="E46" s="7" t="s">
         <v>198</v>
       </c>
       <c r="F46" t="s">
@@ -3646,28 +3658,28 @@
   </cols>
   <sheetData>
     <row r="1" customHeight="true" spans="1:9">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="6" t="s">
         <v>201</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
     </row>
     <row r="2" customHeight="true" spans="1:9">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
     </row>
     <row r="3" customHeight="true" spans="1:6">
       <c r="A3" t="s">
@@ -3703,7 +3715,7 @@
       <c r="D4" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="F4" t="s">
@@ -3724,7 +3736,7 @@
       <c r="D5" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F5" t="s">
@@ -3757,7 +3769,7 @@
       <c r="D7" t="s">
         <v>207</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="E7" s="7" t="s">
         <v>208</v>
       </c>
       <c r="F7" t="s">
@@ -3778,7 +3790,7 @@
       <c r="D8" t="s">
         <v>211</v>
       </c>
-      <c r="E8" s="6" t="s">
+      <c r="E8" s="7" t="s">
         <v>212</v>
       </c>
       <c r="F8" t="s">
@@ -3799,7 +3811,7 @@
       <c r="D9" t="s">
         <v>215</v>
       </c>
-      <c r="E9" s="6" t="s">
+      <c r="E9" s="7" t="s">
         <v>216</v>
       </c>
       <c r="F9" t="s">
@@ -3820,7 +3832,7 @@
       <c r="D10" t="s">
         <v>219</v>
       </c>
-      <c r="E10" s="6" t="s">
+      <c r="E10" s="7" t="s">
         <v>220</v>
       </c>
       <c r="F10" t="s">
@@ -3841,7 +3853,7 @@
       <c r="D11" t="s">
         <v>211</v>
       </c>
-      <c r="E11" s="6" t="s">
+      <c r="E11" s="7" t="s">
         <v>223</v>
       </c>
       <c r="F11" t="s">
@@ -3862,7 +3874,7 @@
       <c r="D12" t="s">
         <v>48</v>
       </c>
-      <c r="E12" s="6" t="s">
+      <c r="E12" s="7" t="s">
         <v>226</v>
       </c>
       <c r="F12" t="s">
@@ -3883,7 +3895,7 @@
       <c r="D13" t="s">
         <v>48</v>
       </c>
-      <c r="E13" s="6" t="s">
+      <c r="E13" s="7" t="s">
         <v>229</v>
       </c>
       <c r="F13" t="s">
@@ -3904,7 +3916,7 @@
       <c r="D14" t="s">
         <v>48</v>
       </c>
-      <c r="E14" s="6" t="s">
+      <c r="E14" s="7" t="s">
         <v>232</v>
       </c>
       <c r="F14" t="s">
@@ -3925,7 +3937,7 @@
       <c r="D15" t="s">
         <v>235</v>
       </c>
-      <c r="E15" s="6" t="s">
+      <c r="E15" s="7" t="s">
         <v>236</v>
       </c>
       <c r="F15" t="s">
@@ -3946,7 +3958,7 @@
       <c r="D16" t="s">
         <v>219</v>
       </c>
-      <c r="E16" s="6" t="s">
+      <c r="E16" s="7" t="s">
         <v>238</v>
       </c>
       <c r="F16" t="s">
@@ -3967,7 +3979,7 @@
       <c r="D17" t="s">
         <v>241</v>
       </c>
-      <c r="E17" s="6" t="s">
+      <c r="E17" s="7" t="s">
         <v>242</v>
       </c>
       <c r="F17" t="s">
@@ -3988,7 +4000,7 @@
       <c r="D18" t="s">
         <v>215</v>
       </c>
-      <c r="E18" s="6" t="s">
+      <c r="E18" s="7" t="s">
         <v>244</v>
       </c>
       <c r="F18" t="s">
@@ -4009,7 +4021,7 @@
       <c r="D19" t="s">
         <v>247</v>
       </c>
-      <c r="E19" s="6" t="s">
+      <c r="E19" s="7" t="s">
         <v>248</v>
       </c>
       <c r="F19" t="s">
@@ -4030,7 +4042,7 @@
       <c r="D20" t="s">
         <v>56</v>
       </c>
-      <c r="E20" s="6" t="s">
+      <c r="E20" s="7" t="s">
         <v>75</v>
       </c>
       <c r="F20" t="s">
@@ -4051,7 +4063,7 @@
       <c r="D21" t="s">
         <v>43</v>
       </c>
-      <c r="E21" s="6" t="s">
+      <c r="E21" s="7" t="s">
         <v>80</v>
       </c>
       <c r="F21" t="s">
@@ -4072,7 +4084,7 @@
       <c r="D22" t="s">
         <v>90</v>
       </c>
-      <c r="E22" s="6" t="s">
+      <c r="E22" s="7" t="s">
         <v>91</v>
       </c>
       <c r="F22" t="s">
@@ -4093,7 +4105,7 @@
       <c r="D23" t="s">
         <v>48</v>
       </c>
-      <c r="E23" s="6" t="s">
+      <c r="E23" s="7" t="s">
         <v>251</v>
       </c>
       <c r="F23" t="s">
@@ -4114,7 +4126,7 @@
       <c r="D24" t="s">
         <v>254</v>
       </c>
-      <c r="E24" s="6" t="s">
+      <c r="E24" s="7" t="s">
         <v>255</v>
       </c>
       <c r="F24" t="s">
@@ -4135,7 +4147,7 @@
       <c r="D25" t="s">
         <v>56</v>
       </c>
-      <c r="E25" s="6" t="s">
+      <c r="E25" s="7" t="s">
         <v>258</v>
       </c>
       <c r="F25" t="s">
@@ -4156,7 +4168,7 @@
       <c r="D26" t="s">
         <v>261</v>
       </c>
-      <c r="E26" s="6" t="s">
+      <c r="E26" s="7" t="s">
         <v>262</v>
       </c>
       <c r="F26" t="s">
@@ -4177,7 +4189,7 @@
       <c r="D27" t="s">
         <v>135</v>
       </c>
-      <c r="E27" s="6" t="s">
+      <c r="E27" s="7" t="s">
         <v>265</v>
       </c>
       <c r="F27" t="s">
@@ -4198,7 +4210,7 @@
       <c r="D28" t="s">
         <v>267</v>
       </c>
-      <c r="E28" s="6" t="s">
+      <c r="E28" s="7" t="s">
         <v>268</v>
       </c>
       <c r="F28" t="s">
@@ -4219,7 +4231,7 @@
       <c r="D29" t="s">
         <v>271</v>
       </c>
-      <c r="E29" s="6" t="s">
+      <c r="E29" s="7" t="s">
         <v>272</v>
       </c>
       <c r="F29" t="s">
@@ -4240,7 +4252,7 @@
       <c r="D30" t="s">
         <v>275</v>
       </c>
-      <c r="E30" s="6" t="s">
+      <c r="E30" s="7" t="s">
         <v>276</v>
       </c>
       <c r="F30" t="s">
@@ -4261,7 +4273,7 @@
       <c r="D31" t="s">
         <v>197</v>
       </c>
-      <c r="E31" s="6" t="s">
+      <c r="E31" s="7" t="s">
         <v>198</v>
       </c>
       <c r="F31" t="s">
@@ -4282,7 +4294,7 @@
       <c r="D32" t="s">
         <v>279</v>
       </c>
-      <c r="E32" s="6" t="s">
+      <c r="E32" s="7" t="s">
         <v>280</v>
       </c>
       <c r="F32" t="s">
@@ -4303,7 +4315,7 @@
       <c r="D33" t="s">
         <v>60</v>
       </c>
-      <c r="E33" s="6" t="s">
+      <c r="E33" s="7" t="s">
         <v>283</v>
       </c>
       <c r="F33" t="s">
@@ -4324,7 +4336,7 @@
       <c r="D34" t="s">
         <v>60</v>
       </c>
-      <c r="E34" s="6" t="s">
+      <c r="E34" s="7" t="s">
         <v>286</v>
       </c>
       <c r="F34" t="s">
@@ -4345,7 +4357,7 @@
       <c r="D35" t="s">
         <v>60</v>
       </c>
-      <c r="E35" s="6" t="s">
+      <c r="E35" s="7" t="s">
         <v>289</v>
       </c>
       <c r="F35" t="s">
@@ -4366,7 +4378,7 @@
       <c r="D36" t="s">
         <v>60</v>
       </c>
-      <c r="E36" s="6" t="s">
+      <c r="E36" s="7" t="s">
         <v>292</v>
       </c>
       <c r="F36" t="s">
@@ -4387,7 +4399,7 @@
       <c r="D37" t="s">
         <v>60</v>
       </c>
-      <c r="E37" s="6" t="s">
+      <c r="E37" s="7" t="s">
         <v>295</v>
       </c>
       <c r="F37" t="s">
@@ -4408,7 +4420,7 @@
       <c r="D38" t="s">
         <v>60</v>
       </c>
-      <c r="E38" s="6" t="s">
+      <c r="E38" s="7" t="s">
         <v>298</v>
       </c>
       <c r="F38" t="s">
@@ -4429,7 +4441,7 @@
       <c r="D39" t="s">
         <v>48</v>
       </c>
-      <c r="E39" s="6" t="s">
+      <c r="E39" s="7" t="s">
         <v>301</v>
       </c>
       <c r="F39" t="s">
@@ -4450,7 +4462,7 @@
       <c r="D40" t="s">
         <v>48</v>
       </c>
-      <c r="E40" s="6" t="s">
+      <c r="E40" s="7" t="s">
         <v>176</v>
       </c>
       <c r="F40" t="s">
@@ -4471,7 +4483,7 @@
       <c r="D41" t="s">
         <v>48</v>
       </c>
-      <c r="E41" s="6" t="s">
+      <c r="E41" s="7" t="s">
         <v>304</v>
       </c>
       <c r="F41" t="s">
@@ -4492,7 +4504,7 @@
       <c r="D42" t="s">
         <v>116</v>
       </c>
-      <c r="E42" s="6" t="s">
+      <c r="E42" s="7" t="s">
         <v>117</v>
       </c>
       <c r="F42" t="s">
@@ -4513,7 +4525,7 @@
       <c r="D43" t="s">
         <v>254</v>
       </c>
-      <c r="E43" s="6" t="s">
+      <c r="E43" s="7" t="s">
         <v>305</v>
       </c>
       <c r="F43" t="s">
@@ -4534,7 +4546,7 @@
       <c r="D44" t="s">
         <v>308</v>
       </c>
-      <c r="E44" s="6" t="s">
+      <c r="E44" s="7" t="s">
         <v>309</v>
       </c>
       <c r="F44" t="s">
@@ -4823,28 +4835,28 @@
   </cols>
   <sheetData>
     <row r="1" customHeight="true" spans="1:9">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="4" t="s">
         <v>310</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
     </row>
     <row r="2" customHeight="true" spans="1:9">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
     </row>
     <row r="3" customHeight="true" spans="1:6">
       <c r="A3" t="s">
@@ -5354,7 +5366,7 @@
         <f t="shared" si="1"/>
         <v>24</v>
       </c>
-      <c r="B27" s="4" t="s">
+      <c r="B27" s="5" t="s">
         <v>356</v>
       </c>
       <c r="C27" t="s">
@@ -5378,7 +5390,7 @@
       <c r="B28" t="s">
         <v>361</v>
       </c>
-      <c r="C28" s="4" t="s">
+      <c r="C28" s="5" t="s">
         <v>362</v>
       </c>
       <c r="D28" t="s">
@@ -5727,7 +5739,7 @@
   <dimension ref="A1:N45"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+      <selection activeCell="B23" sqref="B23:B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.14" defaultRowHeight="24" customHeight="true"/>
@@ -5899,81 +5911,101 @@
         <v>426</v>
       </c>
     </row>
+    <row r="23" customHeight="true" spans="1:2">
+      <c r="A23" t="s">
+        <v>403</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="24" customHeight="true" spans="1:2">
+      <c r="A24" t="s">
+        <v>428</v>
+      </c>
+      <c r="B24" s="2"/>
+    </row>
+    <row r="25" customHeight="true" spans="1:2">
+      <c r="A25" t="s">
+        <v>429</v>
+      </c>
+      <c r="B25" s="2"/>
+    </row>
     <row r="36" customHeight="true" spans="1:12">
       <c r="A36" s="1" t="s">
-        <v>427</v>
-      </c>
-      <c r="B36" s="2"/>
-      <c r="C36" s="2"/>
-      <c r="D36" s="2"/>
-      <c r="E36" s="2"/>
-      <c r="F36" s="2"/>
-      <c r="G36" s="2"/>
-      <c r="H36" s="2"/>
-      <c r="I36" s="2"/>
-      <c r="J36" s="2"/>
-      <c r="K36" s="2"/>
-      <c r="L36" s="2"/>
+        <v>430</v>
+      </c>
+      <c r="B36" s="3"/>
+      <c r="C36" s="3"/>
+      <c r="D36" s="3"/>
+      <c r="E36" s="3"/>
+      <c r="F36" s="3"/>
+      <c r="G36" s="3"/>
+      <c r="H36" s="3"/>
+      <c r="I36" s="3"/>
+      <c r="J36" s="3"/>
+      <c r="K36" s="3"/>
+      <c r="L36" s="3"/>
     </row>
     <row r="37" customHeight="true" spans="1:12">
-      <c r="A37" s="2"/>
-      <c r="B37" s="2"/>
-      <c r="C37" s="2"/>
-      <c r="D37" s="2"/>
-      <c r="E37" s="2"/>
-      <c r="F37" s="2"/>
-      <c r="G37" s="2"/>
-      <c r="H37" s="2"/>
-      <c r="I37" s="2"/>
-      <c r="J37" s="2"/>
-      <c r="K37" s="2"/>
-      <c r="L37" s="2"/>
+      <c r="A37" s="3"/>
+      <c r="B37" s="3"/>
+      <c r="C37" s="3"/>
+      <c r="D37" s="3"/>
+      <c r="E37" s="3"/>
+      <c r="F37" s="3"/>
+      <c r="G37" s="3"/>
+      <c r="H37" s="3"/>
+      <c r="I37" s="3"/>
+      <c r="J37" s="3"/>
+      <c r="K37" s="3"/>
+      <c r="L37" s="3"/>
     </row>
     <row r="38" customHeight="true" spans="1:12">
-      <c r="A38" s="2"/>
-      <c r="B38" s="2"/>
-      <c r="C38" s="2"/>
-      <c r="D38" s="2"/>
-      <c r="E38" s="2"/>
-      <c r="F38" s="2"/>
-      <c r="G38" s="2"/>
-      <c r="H38" s="2"/>
-      <c r="I38" s="2"/>
-      <c r="J38" s="2"/>
-      <c r="K38" s="2"/>
-      <c r="L38" s="2"/>
+      <c r="A38" s="3"/>
+      <c r="B38" s="3"/>
+      <c r="C38" s="3"/>
+      <c r="D38" s="3"/>
+      <c r="E38" s="3"/>
+      <c r="F38" s="3"/>
+      <c r="G38" s="3"/>
+      <c r="H38" s="3"/>
+      <c r="I38" s="3"/>
+      <c r="J38" s="3"/>
+      <c r="K38" s="3"/>
+      <c r="L38" s="3"/>
     </row>
     <row r="39" customHeight="true" spans="1:12">
-      <c r="A39" s="2"/>
-      <c r="B39" s="2"/>
-      <c r="C39" s="2"/>
-      <c r="D39" s="2"/>
-      <c r="E39" s="2"/>
-      <c r="F39" s="2"/>
-      <c r="G39" s="2"/>
-      <c r="H39" s="2"/>
-      <c r="I39" s="2"/>
-      <c r="J39" s="2"/>
-      <c r="K39" s="2"/>
-      <c r="L39" s="2"/>
+      <c r="A39" s="3"/>
+      <c r="B39" s="3"/>
+      <c r="C39" s="3"/>
+      <c r="D39" s="3"/>
+      <c r="E39" s="3"/>
+      <c r="F39" s="3"/>
+      <c r="G39" s="3"/>
+      <c r="H39" s="3"/>
+      <c r="I39" s="3"/>
+      <c r="J39" s="3"/>
+      <c r="K39" s="3"/>
+      <c r="L39" s="3"/>
     </row>
     <row r="40" customHeight="true" spans="1:12">
-      <c r="A40" s="2"/>
-      <c r="B40" s="2"/>
-      <c r="C40" s="2"/>
-      <c r="D40" s="2"/>
-      <c r="E40" s="2"/>
-      <c r="F40" s="2"/>
-      <c r="G40" s="2"/>
-      <c r="H40" s="2"/>
-      <c r="I40" s="2"/>
-      <c r="J40" s="2"/>
-      <c r="K40" s="2"/>
-      <c r="L40" s="2"/>
+      <c r="A40" s="3"/>
+      <c r="B40" s="3"/>
+      <c r="C40" s="3"/>
+      <c r="D40" s="3"/>
+      <c r="E40" s="3"/>
+      <c r="F40" s="3"/>
+      <c r="G40" s="3"/>
+      <c r="H40" s="3"/>
+      <c r="I40" s="3"/>
+      <c r="J40" s="3"/>
+      <c r="K40" s="3"/>
+      <c r="L40" s="3"/>
     </row>
     <row r="42" customHeight="true" spans="1:11">
       <c r="A42" s="1" t="s">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
@@ -6026,8 +6058,9 @@
       <c r="K45" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
     <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B23:B25"/>
     <mergeCell ref="D13:H14"/>
     <mergeCell ref="A42:K45"/>
     <mergeCell ref="A36:L40"/>

--- a/ReadandFitness/Read_record.xlsx
+++ b/ReadandFitness/Read_record.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27720" windowHeight="12450" activeTab="3"/>
+    <workbookView windowWidth="27735" windowHeight="12150" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="693" uniqueCount="432">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="695" uniqueCount="433">
   <si>
     <t>阅读记录</t>
   </si>
@@ -1273,7 +1273,7 @@
     <t>塞尔达传说：旷野之息</t>
   </si>
   <si>
-    <t>总共充值了500（425元） + 100（87元） HKD + 40（242元） 美金</t>
+    <t>总共充值了500（425元） + 100（87元） HKD + 40（242元） 美金 + 20（114）美金</t>
   </si>
   <si>
     <t>塞尔达传说：旷野之息（DLC）</t>
@@ -1307,6 +1307,9 @@
   </si>
   <si>
     <t>异度之刃2</t>
+  </si>
+  <si>
+    <t>19.99 美金</t>
   </si>
   <si>
     <t>你童年时期和少年时期主要是和谁在一起生活？你对他们是如何评价？你最欣赏的亲人是谁？为什么？和奶奶，弟弟。
@@ -1331,8 +1334,8 @@
   <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -1359,24 +1362,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -1399,14 +1393,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1420,8 +1415,62 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1436,68 +1485,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1518,7 +1521,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1530,7 +1635,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1542,37 +1653,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1584,49 +1671,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1638,61 +1689,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1709,8 +1712,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1719,22 +1722,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1765,11 +1768,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1789,17 +1798,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1808,142 +1811,142 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="4" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="4" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="8" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="3" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="8" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="7" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="7" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -1953,15 +1956,12 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
@@ -2543,28 +2543,28 @@
   </cols>
   <sheetData>
     <row r="1" customHeight="true" spans="1:9">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
     </row>
     <row r="2" customHeight="true" spans="1:9">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
     </row>
     <row r="3" customHeight="true" spans="1:8">
       <c r="A3" t="s">
@@ -2606,13 +2606,13 @@
       <c r="D4" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E4" s="6" t="s">
         <v>12</v>
       </c>
       <c r="F4" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="G4" s="2" t="s">
         <v>14</v>
       </c>
       <c r="H4" t="s">
@@ -2633,13 +2633,13 @@
       <c r="D5" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="E5" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F5" t="s">
         <v>18</v>
       </c>
-      <c r="G5" s="3"/>
+      <c r="G5" s="2"/>
       <c r="H5" t="s">
         <v>19</v>
       </c>
@@ -2655,7 +2655,7 @@
       <c r="C6" t="s">
         <v>21</v>
       </c>
-      <c r="G6" s="3"/>
+      <c r="G6" s="2"/>
       <c r="H6" t="s">
         <v>22</v>
       </c>
@@ -2680,7 +2680,7 @@
       <c r="F7" t="s">
         <v>27</v>
       </c>
-      <c r="G7" s="3"/>
+      <c r="G7" s="2"/>
       <c r="H7" s="1" t="s">
         <v>28</v>
       </c>
@@ -2705,7 +2705,7 @@
       <c r="F8" t="s">
         <v>32</v>
       </c>
-      <c r="G8" s="3"/>
+      <c r="G8" s="2"/>
       <c r="H8" s="1"/>
     </row>
     <row r="9" customHeight="true" spans="1:8">
@@ -2728,7 +2728,7 @@
       <c r="F9" t="s">
         <v>36</v>
       </c>
-      <c r="G9" s="3"/>
+      <c r="G9" s="2"/>
       <c r="H9" s="1"/>
     </row>
     <row r="10" customHeight="true" spans="1:8">
@@ -2742,7 +2742,7 @@
       <c r="C10" t="s">
         <v>38</v>
       </c>
-      <c r="G10" s="3"/>
+      <c r="G10" s="2"/>
       <c r="H10" s="1"/>
     </row>
     <row r="11" customHeight="true" spans="1:8">
@@ -2756,7 +2756,7 @@
       <c r="C11" t="s">
         <v>40</v>
       </c>
-      <c r="G11" s="3"/>
+      <c r="G11" s="2"/>
       <c r="H11" s="1"/>
     </row>
     <row r="12" customHeight="true" spans="1:8">
@@ -2779,7 +2779,7 @@
       <c r="F12" t="s">
         <v>45</v>
       </c>
-      <c r="G12" s="3"/>
+      <c r="G12" s="2"/>
       <c r="H12" s="1"/>
     </row>
     <row r="13" customHeight="true" spans="1:8">
@@ -2802,7 +2802,7 @@
       <c r="F13" t="s">
         <v>45</v>
       </c>
-      <c r="G13" s="3"/>
+      <c r="G13" s="2"/>
       <c r="H13" s="1"/>
     </row>
     <row r="14" customHeight="true" spans="1:8">
@@ -2825,7 +2825,7 @@
       <c r="F14" t="s">
         <v>45</v>
       </c>
-      <c r="G14" s="3"/>
+      <c r="G14" s="2"/>
       <c r="H14" s="1"/>
     </row>
     <row r="15" customHeight="true" spans="1:8">
@@ -2848,7 +2848,7 @@
       <c r="F15" t="s">
         <v>45</v>
       </c>
-      <c r="G15" s="3"/>
+      <c r="G15" s="2"/>
       <c r="H15" s="1"/>
     </row>
     <row r="16" customHeight="true" spans="1:8">
@@ -2871,7 +2871,7 @@
       <c r="F16" t="s">
         <v>62</v>
       </c>
-      <c r="G16" s="3"/>
+      <c r="G16" s="2"/>
       <c r="H16" s="1"/>
     </row>
     <row r="17" customHeight="true" spans="1:8">
@@ -2894,7 +2894,7 @@
       <c r="F17" t="s">
         <v>67</v>
       </c>
-      <c r="G17" s="3"/>
+      <c r="G17" s="2"/>
       <c r="H17" s="1"/>
     </row>
     <row r="18" customHeight="true" spans="1:8">
@@ -2911,10 +2911,10 @@
       <c r="D18" t="s">
         <v>70</v>
       </c>
-      <c r="E18" s="7" t="s">
+      <c r="E18" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="G18" s="3"/>
+      <c r="G18" s="2"/>
       <c r="H18" t="s">
         <v>72</v>
       </c>
@@ -2933,13 +2933,13 @@
       <c r="D19" t="s">
         <v>56</v>
       </c>
-      <c r="E19" s="7" t="s">
+      <c r="E19" s="6" t="s">
         <v>75</v>
       </c>
       <c r="F19" t="s">
         <v>76</v>
       </c>
-      <c r="G19" s="3"/>
+      <c r="G19" s="2"/>
       <c r="H19" t="s">
         <v>77</v>
       </c>
@@ -2958,13 +2958,13 @@
       <c r="D20" t="s">
         <v>43</v>
       </c>
-      <c r="E20" s="7" t="s">
+      <c r="E20" s="6" t="s">
         <v>80</v>
       </c>
       <c r="F20" t="s">
         <v>76</v>
       </c>
-      <c r="G20" s="3"/>
+      <c r="G20" s="2"/>
       <c r="H20" t="s">
         <v>81</v>
       </c>
@@ -3010,7 +3010,7 @@
       <c r="D22" t="s">
         <v>90</v>
       </c>
-      <c r="E22" s="7" t="s">
+      <c r="E22" s="6" t="s">
         <v>91</v>
       </c>
       <c r="F22" t="s">
@@ -3118,7 +3118,7 @@
       <c r="D26" t="s">
         <v>110</v>
       </c>
-      <c r="E26" s="7" t="s">
+      <c r="E26" s="6" t="s">
         <v>111</v>
       </c>
       <c r="G26" t="s">
@@ -3142,7 +3142,7 @@
       <c r="D27" t="s">
         <v>116</v>
       </c>
-      <c r="E27" s="7" t="s">
+      <c r="E27" s="6" t="s">
         <v>117</v>
       </c>
       <c r="F27" t="s">
@@ -3169,7 +3169,7 @@
       <c r="D28" t="s">
         <v>122</v>
       </c>
-      <c r="E28" s="7" t="s">
+      <c r="E28" s="6" t="s">
         <v>123</v>
       </c>
       <c r="G28" t="s">
@@ -3241,7 +3241,7 @@
       <c r="D31" t="s">
         <v>135</v>
       </c>
-      <c r="E31" s="7" t="s">
+      <c r="E31" s="6" t="s">
         <v>136</v>
       </c>
       <c r="F31" t="s">
@@ -3268,7 +3268,7 @@
       <c r="D32" t="s">
         <v>43</v>
       </c>
-      <c r="E32" s="7" t="s">
+      <c r="E32" s="6" t="s">
         <v>141</v>
       </c>
       <c r="F32" t="s">
@@ -3295,7 +3295,7 @@
       <c r="D33" t="s">
         <v>56</v>
       </c>
-      <c r="E33" s="7" t="s">
+      <c r="E33" s="6" t="s">
         <v>146</v>
       </c>
       <c r="G33" t="s">
@@ -3319,7 +3319,7 @@
       <c r="D34" t="s">
         <v>25</v>
       </c>
-      <c r="E34" s="7" t="s">
+      <c r="E34" s="6" t="s">
         <v>151</v>
       </c>
       <c r="G34" t="s">
@@ -3343,7 +3343,7 @@
       <c r="D35" t="s">
         <v>135</v>
       </c>
-      <c r="E35" s="7" t="s">
+      <c r="E35" s="6" t="s">
         <v>155</v>
       </c>
       <c r="G35" t="s">
@@ -3367,7 +3367,7 @@
       <c r="D36" t="s">
         <v>160</v>
       </c>
-      <c r="E36" s="7" t="s">
+      <c r="E36" s="6" t="s">
         <v>161</v>
       </c>
       <c r="G36" t="s">
@@ -3391,7 +3391,7 @@
       <c r="D37" t="s">
         <v>43</v>
       </c>
-      <c r="E37" s="7" t="s">
+      <c r="E37" s="6" t="s">
         <v>165</v>
       </c>
       <c r="G37" t="s">
@@ -3412,7 +3412,7 @@
       <c r="D38" t="s">
         <v>135</v>
       </c>
-      <c r="E38" s="7" t="s">
+      <c r="E38" s="6" t="s">
         <v>168</v>
       </c>
       <c r="G38" t="s">
@@ -3433,7 +3433,7 @@
       <c r="D39" t="s">
         <v>52</v>
       </c>
-      <c r="E39" s="7" t="s">
+      <c r="E39" s="6" t="s">
         <v>171</v>
       </c>
       <c r="G39" t="s">
@@ -3457,7 +3457,7 @@
       <c r="D40" t="s">
         <v>48</v>
       </c>
-      <c r="E40" s="7" t="s">
+      <c r="E40" s="6" t="s">
         <v>176</v>
       </c>
       <c r="F40" t="s">
@@ -3484,7 +3484,7 @@
       <c r="D41" t="s">
         <v>70</v>
       </c>
-      <c r="E41" s="7" t="s">
+      <c r="E41" s="6" t="s">
         <v>180</v>
       </c>
     </row>
@@ -3502,7 +3502,7 @@
       <c r="D42" t="s">
         <v>48</v>
       </c>
-      <c r="E42" s="7" t="s">
+      <c r="E42" s="6" t="s">
         <v>183</v>
       </c>
     </row>
@@ -3520,7 +3520,7 @@
       <c r="D43" t="s">
         <v>56</v>
       </c>
-      <c r="E43" s="7" t="s">
+      <c r="E43" s="6" t="s">
         <v>186</v>
       </c>
     </row>
@@ -3559,7 +3559,7 @@
       <c r="D45" t="s">
         <v>192</v>
       </c>
-      <c r="E45" s="7" t="s">
+      <c r="E45" s="6" t="s">
         <v>193</v>
       </c>
       <c r="G45" t="s">
@@ -3580,7 +3580,7 @@
       <c r="D46" t="s">
         <v>197</v>
       </c>
-      <c r="E46" s="7" t="s">
+      <c r="E46" s="6" t="s">
         <v>198</v>
       </c>
       <c r="F46" t="s">
@@ -3658,28 +3658,28 @@
   </cols>
   <sheetData>
     <row r="1" customHeight="true" spans="1:9">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="5" t="s">
         <v>201</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
     </row>
     <row r="2" customHeight="true" spans="1:9">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
     </row>
     <row r="3" customHeight="true" spans="1:6">
       <c r="A3" t="s">
@@ -3715,7 +3715,7 @@
       <c r="D4" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E4" s="6" t="s">
         <v>12</v>
       </c>
       <c r="F4" t="s">
@@ -3736,7 +3736,7 @@
       <c r="D5" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="E5" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F5" t="s">
@@ -3769,7 +3769,7 @@
       <c r="D7" t="s">
         <v>207</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="E7" s="6" t="s">
         <v>208</v>
       </c>
       <c r="F7" t="s">
@@ -3790,7 +3790,7 @@
       <c r="D8" t="s">
         <v>211</v>
       </c>
-      <c r="E8" s="7" t="s">
+      <c r="E8" s="6" t="s">
         <v>212</v>
       </c>
       <c r="F8" t="s">
@@ -3811,7 +3811,7 @@
       <c r="D9" t="s">
         <v>215</v>
       </c>
-      <c r="E9" s="7" t="s">
+      <c r="E9" s="6" t="s">
         <v>216</v>
       </c>
       <c r="F9" t="s">
@@ -3832,7 +3832,7 @@
       <c r="D10" t="s">
         <v>219</v>
       </c>
-      <c r="E10" s="7" t="s">
+      <c r="E10" s="6" t="s">
         <v>220</v>
       </c>
       <c r="F10" t="s">
@@ -3853,7 +3853,7 @@
       <c r="D11" t="s">
         <v>211</v>
       </c>
-      <c r="E11" s="7" t="s">
+      <c r="E11" s="6" t="s">
         <v>223</v>
       </c>
       <c r="F11" t="s">
@@ -3874,7 +3874,7 @@
       <c r="D12" t="s">
         <v>48</v>
       </c>
-      <c r="E12" s="7" t="s">
+      <c r="E12" s="6" t="s">
         <v>226</v>
       </c>
       <c r="F12" t="s">
@@ -3895,7 +3895,7 @@
       <c r="D13" t="s">
         <v>48</v>
       </c>
-      <c r="E13" s="7" t="s">
+      <c r="E13" s="6" t="s">
         <v>229</v>
       </c>
       <c r="F13" t="s">
@@ -3916,7 +3916,7 @@
       <c r="D14" t="s">
         <v>48</v>
       </c>
-      <c r="E14" s="7" t="s">
+      <c r="E14" s="6" t="s">
         <v>232</v>
       </c>
       <c r="F14" t="s">
@@ -3937,7 +3937,7 @@
       <c r="D15" t="s">
         <v>235</v>
       </c>
-      <c r="E15" s="7" t="s">
+      <c r="E15" s="6" t="s">
         <v>236</v>
       </c>
       <c r="F15" t="s">
@@ -3958,7 +3958,7 @@
       <c r="D16" t="s">
         <v>219</v>
       </c>
-      <c r="E16" s="7" t="s">
+      <c r="E16" s="6" t="s">
         <v>238</v>
       </c>
       <c r="F16" t="s">
@@ -3979,7 +3979,7 @@
       <c r="D17" t="s">
         <v>241</v>
       </c>
-      <c r="E17" s="7" t="s">
+      <c r="E17" s="6" t="s">
         <v>242</v>
       </c>
       <c r="F17" t="s">
@@ -4000,7 +4000,7 @@
       <c r="D18" t="s">
         <v>215</v>
       </c>
-      <c r="E18" s="7" t="s">
+      <c r="E18" s="6" t="s">
         <v>244</v>
       </c>
       <c r="F18" t="s">
@@ -4021,7 +4021,7 @@
       <c r="D19" t="s">
         <v>247</v>
       </c>
-      <c r="E19" s="7" t="s">
+      <c r="E19" s="6" t="s">
         <v>248</v>
       </c>
       <c r="F19" t="s">
@@ -4042,7 +4042,7 @@
       <c r="D20" t="s">
         <v>56</v>
       </c>
-      <c r="E20" s="7" t="s">
+      <c r="E20" s="6" t="s">
         <v>75</v>
       </c>
       <c r="F20" t="s">
@@ -4063,7 +4063,7 @@
       <c r="D21" t="s">
         <v>43</v>
       </c>
-      <c r="E21" s="7" t="s">
+      <c r="E21" s="6" t="s">
         <v>80</v>
       </c>
       <c r="F21" t="s">
@@ -4084,7 +4084,7 @@
       <c r="D22" t="s">
         <v>90</v>
       </c>
-      <c r="E22" s="7" t="s">
+      <c r="E22" s="6" t="s">
         <v>91</v>
       </c>
       <c r="F22" t="s">
@@ -4105,7 +4105,7 @@
       <c r="D23" t="s">
         <v>48</v>
       </c>
-      <c r="E23" s="7" t="s">
+      <c r="E23" s="6" t="s">
         <v>251</v>
       </c>
       <c r="F23" t="s">
@@ -4126,7 +4126,7 @@
       <c r="D24" t="s">
         <v>254</v>
       </c>
-      <c r="E24" s="7" t="s">
+      <c r="E24" s="6" t="s">
         <v>255</v>
       </c>
       <c r="F24" t="s">
@@ -4147,7 +4147,7 @@
       <c r="D25" t="s">
         <v>56</v>
       </c>
-      <c r="E25" s="7" t="s">
+      <c r="E25" s="6" t="s">
         <v>258</v>
       </c>
       <c r="F25" t="s">
@@ -4168,7 +4168,7 @@
       <c r="D26" t="s">
         <v>261</v>
       </c>
-      <c r="E26" s="7" t="s">
+      <c r="E26" s="6" t="s">
         <v>262</v>
       </c>
       <c r="F26" t="s">
@@ -4189,7 +4189,7 @@
       <c r="D27" t="s">
         <v>135</v>
       </c>
-      <c r="E27" s="7" t="s">
+      <c r="E27" s="6" t="s">
         <v>265</v>
       </c>
       <c r="F27" t="s">
@@ -4210,7 +4210,7 @@
       <c r="D28" t="s">
         <v>267</v>
       </c>
-      <c r="E28" s="7" t="s">
+      <c r="E28" s="6" t="s">
         <v>268</v>
       </c>
       <c r="F28" t="s">
@@ -4231,7 +4231,7 @@
       <c r="D29" t="s">
         <v>271</v>
       </c>
-      <c r="E29" s="7" t="s">
+      <c r="E29" s="6" t="s">
         <v>272</v>
       </c>
       <c r="F29" t="s">
@@ -4252,7 +4252,7 @@
       <c r="D30" t="s">
         <v>275</v>
       </c>
-      <c r="E30" s="7" t="s">
+      <c r="E30" s="6" t="s">
         <v>276</v>
       </c>
       <c r="F30" t="s">
@@ -4273,7 +4273,7 @@
       <c r="D31" t="s">
         <v>197</v>
       </c>
-      <c r="E31" s="7" t="s">
+      <c r="E31" s="6" t="s">
         <v>198</v>
       </c>
       <c r="F31" t="s">
@@ -4294,7 +4294,7 @@
       <c r="D32" t="s">
         <v>279</v>
       </c>
-      <c r="E32" s="7" t="s">
+      <c r="E32" s="6" t="s">
         <v>280</v>
       </c>
       <c r="F32" t="s">
@@ -4315,7 +4315,7 @@
       <c r="D33" t="s">
         <v>60</v>
       </c>
-      <c r="E33" s="7" t="s">
+      <c r="E33" s="6" t="s">
         <v>283</v>
       </c>
       <c r="F33" t="s">
@@ -4336,7 +4336,7 @@
       <c r="D34" t="s">
         <v>60</v>
       </c>
-      <c r="E34" s="7" t="s">
+      <c r="E34" s="6" t="s">
         <v>286</v>
       </c>
       <c r="F34" t="s">
@@ -4357,7 +4357,7 @@
       <c r="D35" t="s">
         <v>60</v>
       </c>
-      <c r="E35" s="7" t="s">
+      <c r="E35" s="6" t="s">
         <v>289</v>
       </c>
       <c r="F35" t="s">
@@ -4378,7 +4378,7 @@
       <c r="D36" t="s">
         <v>60</v>
       </c>
-      <c r="E36" s="7" t="s">
+      <c r="E36" s="6" t="s">
         <v>292</v>
       </c>
       <c r="F36" t="s">
@@ -4399,7 +4399,7 @@
       <c r="D37" t="s">
         <v>60</v>
       </c>
-      <c r="E37" s="7" t="s">
+      <c r="E37" s="6" t="s">
         <v>295</v>
       </c>
       <c r="F37" t="s">
@@ -4420,7 +4420,7 @@
       <c r="D38" t="s">
         <v>60</v>
       </c>
-      <c r="E38" s="7" t="s">
+      <c r="E38" s="6" t="s">
         <v>298</v>
       </c>
       <c r="F38" t="s">
@@ -4441,7 +4441,7 @@
       <c r="D39" t="s">
         <v>48</v>
       </c>
-      <c r="E39" s="7" t="s">
+      <c r="E39" s="6" t="s">
         <v>301</v>
       </c>
       <c r="F39" t="s">
@@ -4462,7 +4462,7 @@
       <c r="D40" t="s">
         <v>48</v>
       </c>
-      <c r="E40" s="7" t="s">
+      <c r="E40" s="6" t="s">
         <v>176</v>
       </c>
       <c r="F40" t="s">
@@ -4483,7 +4483,7 @@
       <c r="D41" t="s">
         <v>48</v>
       </c>
-      <c r="E41" s="7" t="s">
+      <c r="E41" s="6" t="s">
         <v>304</v>
       </c>
       <c r="F41" t="s">
@@ -4504,7 +4504,7 @@
       <c r="D42" t="s">
         <v>116</v>
       </c>
-      <c r="E42" s="7" t="s">
+      <c r="E42" s="6" t="s">
         <v>117</v>
       </c>
       <c r="F42" t="s">
@@ -4525,7 +4525,7 @@
       <c r="D43" t="s">
         <v>254</v>
       </c>
-      <c r="E43" s="7" t="s">
+      <c r="E43" s="6" t="s">
         <v>305</v>
       </c>
       <c r="F43" t="s">
@@ -4546,7 +4546,7 @@
       <c r="D44" t="s">
         <v>308</v>
       </c>
-      <c r="E44" s="7" t="s">
+      <c r="E44" s="6" t="s">
         <v>309</v>
       </c>
       <c r="F44" t="s">
@@ -4835,28 +4835,28 @@
   </cols>
   <sheetData>
     <row r="1" customHeight="true" spans="1:9">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
         <v>310</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
     </row>
     <row r="2" customHeight="true" spans="1:9">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
     </row>
     <row r="3" customHeight="true" spans="1:6">
       <c r="A3" t="s">
@@ -5366,7 +5366,7 @@
         <f t="shared" si="1"/>
         <v>24</v>
       </c>
-      <c r="B27" s="5" t="s">
+      <c r="B27" s="4" t="s">
         <v>356</v>
       </c>
       <c r="C27" t="s">
@@ -5390,7 +5390,7 @@
       <c r="B28" t="s">
         <v>361</v>
       </c>
-      <c r="C28" s="5" t="s">
+      <c r="C28" s="4" t="s">
         <v>362</v>
       </c>
       <c r="D28" t="s">
@@ -5739,7 +5739,7 @@
   <dimension ref="A1:N45"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23:B25"/>
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.14" defaultRowHeight="24" customHeight="true"/>
@@ -5931,81 +5931,89 @@
       </c>
       <c r="B25" s="2"/>
     </row>
+    <row r="26" customHeight="true" spans="1:2">
+      <c r="A26" t="s">
+        <v>399</v>
+      </c>
+      <c r="B26" t="s">
+        <v>430</v>
+      </c>
+    </row>
     <row r="36" customHeight="true" spans="1:12">
       <c r="A36" s="1" t="s">
-        <v>430</v>
-      </c>
-      <c r="B36" s="3"/>
-      <c r="C36" s="3"/>
-      <c r="D36" s="3"/>
-      <c r="E36" s="3"/>
-      <c r="F36" s="3"/>
-      <c r="G36" s="3"/>
-      <c r="H36" s="3"/>
-      <c r="I36" s="3"/>
-      <c r="J36" s="3"/>
-      <c r="K36" s="3"/>
-      <c r="L36" s="3"/>
+        <v>431</v>
+      </c>
+      <c r="B36" s="2"/>
+      <c r="C36" s="2"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="2"/>
+      <c r="G36" s="2"/>
+      <c r="H36" s="2"/>
+      <c r="I36" s="2"/>
+      <c r="J36" s="2"/>
+      <c r="K36" s="2"/>
+      <c r="L36" s="2"/>
     </row>
     <row r="37" customHeight="true" spans="1:12">
-      <c r="A37" s="3"/>
-      <c r="B37" s="3"/>
-      <c r="C37" s="3"/>
-      <c r="D37" s="3"/>
-      <c r="E37" s="3"/>
-      <c r="F37" s="3"/>
-      <c r="G37" s="3"/>
-      <c r="H37" s="3"/>
-      <c r="I37" s="3"/>
-      <c r="J37" s="3"/>
-      <c r="K37" s="3"/>
-      <c r="L37" s="3"/>
+      <c r="A37" s="2"/>
+      <c r="B37" s="2"/>
+      <c r="C37" s="2"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
+      <c r="F37" s="2"/>
+      <c r="G37" s="2"/>
+      <c r="H37" s="2"/>
+      <c r="I37" s="2"/>
+      <c r="J37" s="2"/>
+      <c r="K37" s="2"/>
+      <c r="L37" s="2"/>
     </row>
     <row r="38" customHeight="true" spans="1:12">
-      <c r="A38" s="3"/>
-      <c r="B38" s="3"/>
-      <c r="C38" s="3"/>
-      <c r="D38" s="3"/>
-      <c r="E38" s="3"/>
-      <c r="F38" s="3"/>
-      <c r="G38" s="3"/>
-      <c r="H38" s="3"/>
-      <c r="I38" s="3"/>
-      <c r="J38" s="3"/>
-      <c r="K38" s="3"/>
-      <c r="L38" s="3"/>
+      <c r="A38" s="2"/>
+      <c r="B38" s="2"/>
+      <c r="C38" s="2"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
+      <c r="F38" s="2"/>
+      <c r="G38" s="2"/>
+      <c r="H38" s="2"/>
+      <c r="I38" s="2"/>
+      <c r="J38" s="2"/>
+      <c r="K38" s="2"/>
+      <c r="L38" s="2"/>
     </row>
     <row r="39" customHeight="true" spans="1:12">
-      <c r="A39" s="3"/>
-      <c r="B39" s="3"/>
-      <c r="C39" s="3"/>
-      <c r="D39" s="3"/>
-      <c r="E39" s="3"/>
-      <c r="F39" s="3"/>
-      <c r="G39" s="3"/>
-      <c r="H39" s="3"/>
-      <c r="I39" s="3"/>
-      <c r="J39" s="3"/>
-      <c r="K39" s="3"/>
-      <c r="L39" s="3"/>
+      <c r="A39" s="2"/>
+      <c r="B39" s="2"/>
+      <c r="C39" s="2"/>
+      <c r="D39" s="2"/>
+      <c r="E39" s="2"/>
+      <c r="F39" s="2"/>
+      <c r="G39" s="2"/>
+      <c r="H39" s="2"/>
+      <c r="I39" s="2"/>
+      <c r="J39" s="2"/>
+      <c r="K39" s="2"/>
+      <c r="L39" s="2"/>
     </row>
     <row r="40" customHeight="true" spans="1:12">
-      <c r="A40" s="3"/>
-      <c r="B40" s="3"/>
-      <c r="C40" s="3"/>
-      <c r="D40" s="3"/>
-      <c r="E40" s="3"/>
-      <c r="F40" s="3"/>
-      <c r="G40" s="3"/>
-      <c r="H40" s="3"/>
-      <c r="I40" s="3"/>
-      <c r="J40" s="3"/>
-      <c r="K40" s="3"/>
-      <c r="L40" s="3"/>
+      <c r="A40" s="2"/>
+      <c r="B40" s="2"/>
+      <c r="C40" s="2"/>
+      <c r="D40" s="2"/>
+      <c r="E40" s="2"/>
+      <c r="F40" s="2"/>
+      <c r="G40" s="2"/>
+      <c r="H40" s="2"/>
+      <c r="I40" s="2"/>
+      <c r="J40" s="2"/>
+      <c r="K40" s="2"/>
+      <c r="L40" s="2"/>
     </row>
     <row r="42" customHeight="true" spans="1:11">
       <c r="A42" s="1" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>

--- a/ReadandFitness/Read_record.xlsx
+++ b/ReadandFitness/Read_record.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27735" windowHeight="12150" activeTab="3"/>
+    <workbookView windowWidth="27795" windowHeight="12450" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="695" uniqueCount="433">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="697" uniqueCount="435">
   <si>
     <t>阅读记录</t>
   </si>
@@ -1273,7 +1273,7 @@
     <t>塞尔达传说：旷野之息</t>
   </si>
   <si>
-    <t>总共充值了500（425元） + 100（87元） HKD + 40（242元） 美金 + 20（114）美金</t>
+    <t>总共充值了500（425元）HKD + 100（87元） HKD + 40（242元） 美金 + 20（114）美金 + 30（166.5元）美金</t>
   </si>
   <si>
     <t>塞尔达传说：旷野之息（DLC）</t>
@@ -1310,6 +1310,12 @@
   </si>
   <si>
     <t>19.99 美金</t>
+  </si>
+  <si>
+    <t>暗黑破坏神3</t>
+  </si>
+  <si>
+    <t>29.99美金</t>
   </si>
   <si>
     <t>你童年时期和少年时期主要是和谁在一起生活？你对他们是如何评价？你最欣赏的亲人是谁？为什么？和奶奶，弟弟。
@@ -1332,10 +1338,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -1363,14 +1369,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -1378,7 +1392,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1391,9 +1405,71 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1415,16 +1491,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1432,75 +1507,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1515,7 +1521,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1527,13 +1683,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1545,157 +1695,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1712,17 +1718,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1738,6 +1750,30 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1768,41 +1804,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1811,148 +1817,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="6" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="3" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="3" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="4" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="3" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="7" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="2" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -5739,7 +5745,7 @@
   <dimension ref="A1:N45"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+      <selection activeCell="D17" sqref="D17:H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.14" defaultRowHeight="24" customHeight="true"/>
@@ -5939,9 +5945,17 @@
         <v>430</v>
       </c>
     </row>
+    <row r="27" customHeight="true" spans="1:2">
+      <c r="A27" t="s">
+        <v>431</v>
+      </c>
+      <c r="B27" t="s">
+        <v>432</v>
+      </c>
+    </row>
     <row r="36" customHeight="true" spans="1:12">
       <c r="A36" s="1" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
@@ -6013,7 +6027,7 @@
     </row>
     <row r="42" customHeight="true" spans="1:11">
       <c r="A42" s="1" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>

--- a/ReadandFitness/Read_record.xlsx
+++ b/ReadandFitness/Read_record.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="697" uniqueCount="435">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="699" uniqueCount="437">
   <si>
     <t>阅读记录</t>
   </si>
@@ -1273,7 +1273,7 @@
     <t>塞尔达传说：旷野之息</t>
   </si>
   <si>
-    <t>总共充值了500（425元）HKD + 100（87元） HKD + 40（242元） 美金 + 20（114）美金 + 30（166.5元）美金</t>
+    <t>总共充值了500（425元）HKD + 100（87元） HKD + 40（242元） 美金 + 20（114）美金 + 30（166.5元）美金 + 128 元，总 计 1162.5 元。</t>
   </si>
   <si>
     <t>塞尔达传说：旷野之息（DLC）</t>
@@ -1316,6 +1316,12 @@
   </si>
   <si>
     <t>29.99美金</t>
+  </si>
+  <si>
+    <t>switch联机会员</t>
+  </si>
+  <si>
+    <t>128元</t>
   </si>
   <si>
     <t>你童年时期和少年时期主要是和谁在一起生活？你对他们是如何评价？你最欣赏的亲人是谁？为什么？和奶奶，弟弟。
@@ -1338,10 +1344,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -1368,13 +1374,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -1383,16 +1382,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1413,19 +1419,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1445,21 +1450,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -1469,7 +1459,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1484,10 +1474,33 @@
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1500,13 +1513,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1527,7 +1533,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1539,7 +1587,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1551,19 +1623,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1575,25 +1641,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1605,13 +1671,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1623,85 +1701,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1715,11 +1721,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1739,17 +1751,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1817,148 +1823,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="6" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="1" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="6" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="3" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="3" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="2" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -5745,7 +5751,7 @@
   <dimension ref="A1:N45"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17:H18"/>
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.14" defaultRowHeight="24" customHeight="true"/>
@@ -5953,9 +5959,17 @@
         <v>432</v>
       </c>
     </row>
+    <row r="28" customHeight="true" spans="1:2">
+      <c r="A28" t="s">
+        <v>433</v>
+      </c>
+      <c r="B28" t="s">
+        <v>434</v>
+      </c>
+    </row>
     <row r="36" customHeight="true" spans="1:12">
       <c r="A36" s="1" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
@@ -6027,7 +6041,7 @@
     </row>
     <row r="42" customHeight="true" spans="1:11">
       <c r="A42" s="1" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
